--- a/inst/extdata/GNDA.xlsx
+++ b/inst/extdata/GNDA.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>101.5748839378821</v>
+        <v>101.574884</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>100.4872176021244</v>
+        <v>100.487218</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>100.6224111864949</v>
+        <v>100.622411</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>99.11156221157322</v>
+        <v>99.11156200000001</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>100.1403891285968</v>
+        <v>100.140389</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>101.0322473612557</v>
+        <v>101.032247</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>101.0923590799804</v>
+        <v>101.092359</v>
       </c>
     </row>
     <row r="10">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>101.5463192890468</v>
+        <v>101.546319</v>
       </c>
     </row>
     <row r="11">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>102.0139449850463</v>
+        <v>102.013945</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>101.7395605329686</v>
+        <v>101.739561</v>
       </c>
     </row>
     <row r="13">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>101.4373881675965</v>
+        <v>101.437388</v>
       </c>
     </row>
     <row r="14">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>101.6457566785623</v>
+        <v>101.645757</v>
       </c>
     </row>
     <row r="15">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>101.5432166405756</v>
+        <v>101.543217</v>
       </c>
     </row>
     <row r="16">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>101.6125164831528</v>
+        <v>101.612516</v>
       </c>
     </row>
     <row r="17">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>100.7849514015968</v>
+        <v>100.784951</v>
       </c>
     </row>
     <row r="18">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>101.0409032965049</v>
+        <v>101.040903</v>
       </c>
     </row>
     <row r="19">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>102.2480672393212</v>
+        <v>102.248067</v>
       </c>
     </row>
     <row r="20">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>101.5249538598051</v>
+        <v>101.524954</v>
       </c>
     </row>
     <row r="21">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>101.1179207243701</v>
+        <v>101.117921</v>
       </c>
     </row>
     <row r="22">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>102.62843474523</v>
+        <v>102.628435</v>
       </c>
     </row>
     <row r="23">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>103.067995400194</v>
+        <v>103.067995</v>
       </c>
     </row>
     <row r="24">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>101.2879458081151</v>
+        <v>101.287946</v>
       </c>
     </row>
     <row r="25">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>101.4876268796118</v>
+        <v>101.487627</v>
       </c>
     </row>
     <row r="26">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>101.4034395403383</v>
+        <v>101.40344</v>
       </c>
     </row>
     <row r="27">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>101.6376484316644</v>
+        <v>101.637648</v>
       </c>
     </row>
     <row r="28">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B28">
-        <v>102.439731570727</v>
+        <v>102.439732</v>
       </c>
     </row>
     <row r="29">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>101.5852236480115</v>
+        <v>101.585224</v>
       </c>
     </row>
     <row r="30">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B30">
-        <v>101.9980651157181</v>
+        <v>101.998065</v>
       </c>
     </row>
     <row r="31">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B31">
-        <v>101.8142305395661</v>
+        <v>101.814231</v>
       </c>
     </row>
     <row r="32">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B32">
-        <v>101.0221208827404</v>
+        <v>101.022121</v>
       </c>
     </row>
     <row r="33">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>101.2770206595636</v>
+        <v>101.277021</v>
       </c>
     </row>
     <row r="34">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="B34">
-        <v>101.16473106744</v>
+        <v>101.164731</v>
       </c>
     </row>
     <row r="35">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B35">
-        <v>102.0733964346288</v>
+        <v>102.073396</v>
       </c>
     </row>
     <row r="36">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B36">
-        <v>102.0820357582049</v>
+        <v>102.082036</v>
       </c>
     </row>
     <row r="37">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B37">
-        <v>100.7588636981704</v>
+        <v>100.758864</v>
       </c>
     </row>
     <row r="38">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="B38">
-        <v>100.1736741550517</v>
+        <v>100.173674</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="B39">
-        <v>99.71880446402012</v>
+        <v>99.71880400000001</v>
       </c>
     </row>
     <row r="40">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B40">
-        <v>100.0873502087959</v>
+        <v>100.08735</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B41">
-        <v>99.12064928674978</v>
+        <v>99.120649</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="B42">
-        <v>99.56527494950697</v>
+        <v>99.565275</v>
       </c>
     </row>
     <row r="43">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="B43">
-        <v>99.03785098963883</v>
+        <v>99.037851</v>
       </c>
     </row>
     <row r="44">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B44">
-        <v>99.96997058959283</v>
+        <v>99.969971</v>
       </c>
     </row>
     <row r="45">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="B45">
-        <v>98.91301780693462</v>
+        <v>98.91301799999999</v>
       </c>
     </row>
     <row r="46">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B46">
-        <v>98.87092062403833</v>
+        <v>98.870921</v>
       </c>
     </row>
     <row r="47">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B47">
-        <v>99.2006324910172</v>
+        <v>99.200632</v>
       </c>
     </row>
     <row r="48">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="B48">
-        <v>98.10849222943818</v>
+        <v>98.108492</v>
       </c>
     </row>
     <row r="49">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="B49">
-        <v>97.36148970250322</v>
+        <v>97.36149</v>
       </c>
     </row>
     <row r="50">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="B50">
-        <v>96.33541207369782</v>
+        <v>96.33541200000001</v>
       </c>
     </row>
     <row r="51">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="B51">
-        <v>96.34863861618096</v>
+        <v>96.34863900000001</v>
       </c>
     </row>
     <row r="52">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B52">
-        <v>96.66306103244065</v>
+        <v>96.663061</v>
       </c>
     </row>
     <row r="53">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="B53">
-        <v>96.69133980294771</v>
+        <v>96.69134</v>
       </c>
     </row>
     <row r="54">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="B54">
-        <v>97.23544250255316</v>
+        <v>97.235443</v>
       </c>
     </row>
     <row r="55">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="B55">
-        <v>99.27734670198423</v>
+        <v>99.27734700000001</v>
       </c>
     </row>
     <row r="56">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="B56">
-        <v>99.55324532312825</v>
+        <v>99.553245</v>
       </c>
     </row>
     <row r="57">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="B57">
-        <v>100.7370098369837</v>
+        <v>100.73701</v>
       </c>
     </row>
     <row r="58">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="B58">
-        <v>101.4962764443951</v>
+        <v>101.496276</v>
       </c>
     </row>
     <row r="59">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B59">
-        <v>101.7544690243526</v>
+        <v>101.754469</v>
       </c>
     </row>
     <row r="60">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="B60">
-        <v>101.9996791373085</v>
+        <v>101.999679</v>
       </c>
     </row>
     <row r="61">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B61">
-        <v>102.4731673918469</v>
+        <v>102.473167</v>
       </c>
     </row>
     <row r="62">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="B62">
-        <v>103.1854586898913</v>
+        <v>103.185459</v>
       </c>
     </row>
     <row r="63">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="B63">
-        <v>103.3077761708504</v>
+        <v>103.307776</v>
       </c>
     </row>
     <row r="64">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="B64">
-        <v>103.4766301072958</v>
+        <v>103.47663</v>
       </c>
     </row>
     <row r="65">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="B65">
-        <v>104.1736042093187</v>
+        <v>104.173604</v>
       </c>
     </row>
     <row r="66">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B66">
-        <v>104.5729749508174</v>
+        <v>104.572975</v>
       </c>
     </row>
     <row r="67">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B67">
-        <v>102.5053997657397</v>
+        <v>102.5054</v>
       </c>
     </row>
     <row r="68">
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="B68">
-        <v>102.9366496485799</v>
+        <v>102.93665</v>
       </c>
     </row>
     <row r="69">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="B69">
-        <v>102.4731546480665</v>
+        <v>102.473155</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="B70">
-        <v>103.1752014618233</v>
+        <v>103.175201</v>
       </c>
     </row>
     <row r="71">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="B71">
-        <v>104.6285280377039</v>
+        <v>104.628528</v>
       </c>
     </row>
     <row r="72">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="B72">
-        <v>104.7266478670008</v>
+        <v>104.726648</v>
       </c>
     </row>
     <row r="73">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="B73">
-        <v>106.400397805225</v>
+        <v>106.400398</v>
       </c>
     </row>
     <row r="74">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="B74">
-        <v>106.2355458537455</v>
+        <v>106.235546</v>
       </c>
     </row>
     <row r="75">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="B75">
-        <v>107.4314168191199</v>
+        <v>107.431417</v>
       </c>
     </row>
     <row r="76">
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="B76">
-        <v>106.9620819390285</v>
+        <v>106.962082</v>
       </c>
     </row>
     <row r="77">
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="B77">
-        <v>106.602668401643</v>
+        <v>106.602668</v>
       </c>
     </row>
     <row r="78">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="B78">
-        <v>104.8112662340828</v>
+        <v>104.811266</v>
       </c>
     </row>
     <row r="79">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="B79">
-        <v>104.165002611</v>
+        <v>104.165003</v>
       </c>
     </row>
     <row r="80">
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="B80">
-        <v>102.5677732603045</v>
+        <v>102.567773</v>
       </c>
     </row>
     <row r="81">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="B81">
-        <v>102.906135256799</v>
+        <v>102.906135</v>
       </c>
     </row>
     <row r="82">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="B82">
-        <v>102.0411493450362</v>
+        <v>102.041149</v>
       </c>
     </row>
     <row r="83">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="B83">
-        <v>104.194782267428</v>
+        <v>104.194782</v>
       </c>
     </row>
     <row r="84">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="B84">
-        <v>104.9992872404801</v>
+        <v>104.999287</v>
       </c>
     </row>
     <row r="85">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="B85">
-        <v>104.1794950588971</v>
+        <v>104.179495</v>
       </c>
     </row>
     <row r="86">
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="B86">
-        <v>103.8846126448364</v>
+        <v>103.884613</v>
       </c>
     </row>
     <row r="87">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="B87">
-        <v>101.9950700771542</v>
+        <v>101.99507</v>
       </c>
     </row>
     <row r="88">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="B88">
-        <v>102.5256147641375</v>
+        <v>102.525615</v>
       </c>
     </row>
     <row r="89">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="B89">
-        <v>102.9071215054309</v>
+        <v>102.907122</v>
       </c>
     </row>
     <row r="90">
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="B90">
-        <v>103.5711226497783</v>
+        <v>103.571123</v>
       </c>
     </row>
     <row r="91">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="B91">
-        <v>102.9511495693092</v>
+        <v>102.95115</v>
       </c>
     </row>
     <row r="92">
@@ -1276,7 +1276,7 @@
         </is>
       </c>
       <c r="B92">
-        <v>103.3879264210902</v>
+        <v>103.387926</v>
       </c>
     </row>
     <row r="93">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="B93">
-        <v>103.728142628287</v>
+        <v>103.728143</v>
       </c>
     </row>
     <row r="94">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="B94">
-        <v>104.0991152854219</v>
+        <v>104.099115</v>
       </c>
     </row>
     <row r="95">
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="B95">
-        <v>105.0171247656873</v>
+        <v>105.017125</v>
       </c>
     </row>
     <row r="96">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="B96">
-        <v>104.6428078743265</v>
+        <v>104.642808</v>
       </c>
     </row>
     <row r="97">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="B97">
-        <v>104.6287607760664</v>
+        <v>104.628761</v>
       </c>
     </row>
     <row r="98">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="B98">
-        <v>103.2961509725934</v>
+        <v>103.296151</v>
       </c>
     </row>
     <row r="99">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="B99">
-        <v>103.7526258881746</v>
+        <v>103.752626</v>
       </c>
     </row>
     <row r="100">
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="B100">
-        <v>104.000112305885</v>
+        <v>104.000112</v>
       </c>
     </row>
     <row r="101">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="B101">
-        <v>102.1366049771029</v>
+        <v>102.136605</v>
       </c>
     </row>
     <row r="102">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="B102">
-        <v>101.5182378373124</v>
+        <v>101.518238</v>
       </c>
     </row>
     <row r="103">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="B103">
-        <v>103.0331590649897</v>
+        <v>103.033159</v>
       </c>
     </row>
     <row r="104">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="B104">
-        <v>103.8222648071039</v>
+        <v>103.822265</v>
       </c>
     </row>
     <row r="105">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="B105">
-        <v>104.7374945566569</v>
+        <v>104.737495</v>
       </c>
     </row>
     <row r="106">
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="B106">
-        <v>104.3792443572533</v>
+        <v>104.379244</v>
       </c>
     </row>
     <row r="107">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="B107">
-        <v>105.3985459603025</v>
+        <v>105.398546</v>
       </c>
     </row>
     <row r="108">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="B108">
-        <v>105.0940029662007</v>
+        <v>105.094003</v>
       </c>
     </row>
     <row r="109">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B109">
-        <v>104.3611658430146</v>
+        <v>104.361166</v>
       </c>
     </row>
     <row r="110">
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="B110">
-        <v>103.763464654887</v>
+        <v>103.763465</v>
       </c>
     </row>
     <row r="111">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="B111">
-        <v>102.2356978080744</v>
+        <v>102.235698</v>
       </c>
     </row>
     <row r="112">
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="B112">
-        <v>103.060885721649</v>
+        <v>103.060886</v>
       </c>
     </row>
     <row r="113">
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="B113">
-        <v>103.7565023999547</v>
+        <v>103.756502</v>
       </c>
     </row>
     <row r="114">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="B114">
-        <v>102.6448706872045</v>
+        <v>102.644871</v>
       </c>
     </row>
     <row r="115">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="B115">
-        <v>103.0218405315131</v>
+        <v>103.021841</v>
       </c>
     </row>
     <row r="116">
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="B116">
-        <v>102.6797785464367</v>
+        <v>102.679779</v>
       </c>
     </row>
     <row r="117">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="B117">
-        <v>102.3538951763672</v>
+        <v>102.353895</v>
       </c>
     </row>
     <row r="118">
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="B118">
-        <v>103.2751888325751</v>
+        <v>103.275189</v>
       </c>
     </row>
     <row r="119">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="B119">
-        <v>103.9307067888009</v>
+        <v>103.930707</v>
       </c>
     </row>
     <row r="120">
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="B120">
-        <v>105.0341110414275</v>
+        <v>105.034111</v>
       </c>
     </row>
     <row r="121">
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="B121">
-        <v>103.7068147689497</v>
+        <v>103.706815</v>
       </c>
     </row>
     <row r="122">
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="B122">
-        <v>104.1169487501193</v>
+        <v>104.116949</v>
       </c>
     </row>
     <row r="123">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="B123">
-        <v>103.8098708719741</v>
+        <v>103.809871</v>
       </c>
     </row>
     <row r="124">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="B124">
-        <v>104.0331942640689</v>
+        <v>104.033194</v>
       </c>
     </row>
     <row r="125">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B125">
-        <v>104.7635034089078</v>
+        <v>104.763503</v>
       </c>
     </row>
     <row r="126">
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="B126">
-        <v>105.4798881768911</v>
+        <v>105.479888</v>
       </c>
     </row>
     <row r="127">
@@ -1626,7 +1626,7 @@
         </is>
       </c>
       <c r="B127">
-        <v>104.8821607110262</v>
+        <v>104.882161</v>
       </c>
     </row>
     <row r="128">
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="B128">
-        <v>105.314674864854</v>
+        <v>105.314675</v>
       </c>
     </row>
     <row r="129">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="B129">
-        <v>105.5183647374566</v>
+        <v>105.518365</v>
       </c>
     </row>
     <row r="130">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="B130">
-        <v>105.9825925108337</v>
+        <v>105.982593</v>
       </c>
     </row>
     <row r="131">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="B131">
-        <v>105.4248548563891</v>
+        <v>105.424855</v>
       </c>
     </row>
     <row r="132">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="B132">
-        <v>104.6794548145576</v>
+        <v>104.679455</v>
       </c>
     </row>
     <row r="133">
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="B133">
-        <v>103.0804138289731</v>
+        <v>103.080414</v>
       </c>
     </row>
     <row r="134">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="B134">
-        <v>103.7881901927847</v>
+        <v>103.78819</v>
       </c>
     </row>
     <row r="135">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="B135">
-        <v>105.0415064028413</v>
+        <v>105.041506</v>
       </c>
     </row>
     <row r="136">
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="B136">
-        <v>105.9040446371597</v>
+        <v>105.904045</v>
       </c>
     </row>
     <row r="137">
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="B137">
-        <v>104.8364448013218</v>
+        <v>104.836445</v>
       </c>
     </row>
     <row r="138">
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="B138">
-        <v>104.604390263654</v>
+        <v>104.60439</v>
       </c>
     </row>
     <row r="139">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="B139">
-        <v>104.4209547349285</v>
+        <v>104.420955</v>
       </c>
     </row>
     <row r="140">
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="B140">
-        <v>105.2882056311616</v>
+        <v>105.288206</v>
       </c>
     </row>
     <row r="141">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="B141">
-        <v>105.3366224515332</v>
+        <v>105.336622</v>
       </c>
     </row>
     <row r="142">
@@ -1776,7 +1776,7 @@
         </is>
       </c>
       <c r="B142">
-        <v>106.7667084785469</v>
+        <v>106.766708</v>
       </c>
     </row>
     <row r="143">
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="B143">
-        <v>106.4205622700028</v>
+        <v>106.420562</v>
       </c>
     </row>
     <row r="144">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="B144">
-        <v>107.5963418991115</v>
+        <v>107.596342</v>
       </c>
     </row>
     <row r="145">
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="B145">
-        <v>109.0217225575804</v>
+        <v>109.021723</v>
       </c>
     </row>
     <row r="146">
@@ -1816,7 +1816,7 @@
         </is>
       </c>
       <c r="B146">
-        <v>109.6796699328385</v>
+        <v>109.67967</v>
       </c>
     </row>
     <row r="147">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="B147">
-        <v>110.9105422480186</v>
+        <v>110.910542</v>
       </c>
     </row>
     <row r="148">
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="B148">
-        <v>111.5735652060728</v>
+        <v>111.573565</v>
       </c>
     </row>
     <row r="149">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="B149">
-        <v>111.9651028872145</v>
+        <v>111.965103</v>
       </c>
     </row>
     <row r="150">
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="B150">
-        <v>112.4163762556671</v>
+        <v>112.416376</v>
       </c>
     </row>
     <row r="151">
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="B151">
-        <v>112.7727600606136</v>
+        <v>112.77276</v>
       </c>
     </row>
     <row r="152">
@@ -1876,7 +1876,7 @@
         </is>
       </c>
       <c r="B152">
-        <v>110.9350652408823</v>
+        <v>110.935065</v>
       </c>
     </row>
     <row r="153">
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="B153">
-        <v>110.3444602225232</v>
+        <v>110.34446</v>
       </c>
     </row>
     <row r="154">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="B154">
-        <v>110.9541985163874</v>
+        <v>110.954199</v>
       </c>
     </row>
     <row r="155">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="B155">
-        <v>110.3891889953856</v>
+        <v>110.389189</v>
       </c>
     </row>
     <row r="156">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="B156">
-        <v>109.3520575049527</v>
+        <v>109.352058</v>
       </c>
     </row>
     <row r="157">
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="B157">
-        <v>109.5447553193815</v>
+        <v>109.544755</v>
       </c>
     </row>
     <row r="158">
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="B158">
-        <v>110.6605469105493</v>
+        <v>110.660547</v>
       </c>
     </row>
     <row r="159">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="B159">
-        <v>108.8621105676177</v>
+        <v>108.862111</v>
       </c>
     </row>
     <row r="160">
@@ -1956,7 +1956,7 @@
         </is>
       </c>
       <c r="B160">
-        <v>108.213579865446</v>
+        <v>108.21358</v>
       </c>
     </row>
     <row r="161">
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="B161">
-        <v>108.7632743660315</v>
+        <v>108.763274</v>
       </c>
     </row>
     <row r="162">
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="B162">
-        <v>106.1657207001222</v>
+        <v>106.165721</v>
       </c>
     </row>
     <row r="163">
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="B163">
-        <v>104.6417174693627</v>
+        <v>104.641717</v>
       </c>
     </row>
     <row r="164">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="B164">
-        <v>106.4839279212962</v>
+        <v>106.483928</v>
       </c>
     </row>
     <row r="165">
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="B165">
-        <v>107.0997692690989</v>
+        <v>107.099769</v>
       </c>
     </row>
     <row r="166">
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="B166">
-        <v>107.2165923714107</v>
+        <v>107.216592</v>
       </c>
     </row>
     <row r="167">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="B167">
-        <v>106.0244794748375</v>
+        <v>106.024479</v>
       </c>
     </row>
     <row r="168">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="B168">
-        <v>105.4078823948165</v>
+        <v>105.407882</v>
       </c>
     </row>
     <row r="169">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="B169">
-        <v>103.8714685665908</v>
+        <v>103.871469</v>
       </c>
     </row>
     <row r="170">
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="B170">
-        <v>102.6184290745004</v>
+        <v>102.618429</v>
       </c>
     </row>
     <row r="171">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="B171">
-        <v>101.9696470713042</v>
+        <v>101.969647</v>
       </c>
     </row>
     <row r="172">
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="B172">
-        <v>101.820560221222</v>
+        <v>101.82056</v>
       </c>
     </row>
     <row r="173">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="B173">
-        <v>101.6975633848682</v>
+        <v>101.697563</v>
       </c>
     </row>
     <row r="174">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="B174">
-        <v>101.0129252688681</v>
+        <v>101.012925</v>
       </c>
     </row>
     <row r="175">
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="B175">
-        <v>100.7744922835446</v>
+        <v>100.774492</v>
       </c>
     </row>
     <row r="176">
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="B176">
-        <v>100.6025681959378</v>
+        <v>100.602568</v>
       </c>
     </row>
     <row r="177">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="B177">
-        <v>102.0193484444852</v>
+        <v>102.019348</v>
       </c>
     </row>
     <row r="178">
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="B178">
-        <v>101.2873818505644</v>
+        <v>101.287382</v>
       </c>
     </row>
     <row r="179">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="B179">
-        <v>102.8425220087022</v>
+        <v>102.842522</v>
       </c>
     </row>
     <row r="180">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="B180">
-        <v>101.7780958786094</v>
+        <v>101.778096</v>
       </c>
     </row>
     <row r="181">
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="B181">
-        <v>101.5666360799384</v>
+        <v>101.566636</v>
       </c>
     </row>
     <row r="182">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="B182">
-        <v>103.4291880639452</v>
+        <v>103.429188</v>
       </c>
     </row>
     <row r="183">
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="B183">
-        <v>102.9861709866941</v>
+        <v>102.986171</v>
       </c>
     </row>
     <row r="184">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="B184">
-        <v>102.5063295218976</v>
+        <v>102.50633</v>
       </c>
     </row>
     <row r="185">
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="B185">
-        <v>102.6394588858318</v>
+        <v>102.639459</v>
       </c>
     </row>
     <row r="186">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="B186">
-        <v>102.3456586571933</v>
+        <v>102.345659</v>
       </c>
     </row>
     <row r="187">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="B187">
-        <v>104.145972690592</v>
+        <v>104.145973</v>
       </c>
     </row>
     <row r="188">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B188">
-        <v>104.5046638651295</v>
+        <v>104.504664</v>
       </c>
     </row>
     <row r="189">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="B189">
-        <v>104.1606963002029</v>
+        <v>104.160696</v>
       </c>
     </row>
     <row r="190">
@@ -2256,7 +2256,7 @@
         </is>
       </c>
       <c r="B190">
-        <v>103.8042475961905</v>
+        <v>103.804248</v>
       </c>
     </row>
     <row r="191">
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="B191">
-        <v>103.4211740901685</v>
+        <v>103.421174</v>
       </c>
     </row>
     <row r="192">
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="B192">
-        <v>103.5711840148646</v>
+        <v>103.571184</v>
       </c>
     </row>
     <row r="193">
@@ -2286,7 +2286,7 @@
         </is>
       </c>
       <c r="B193">
-        <v>104.3515916937992</v>
+        <v>104.351592</v>
       </c>
     </row>
     <row r="194">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="B194">
-        <v>102.9463378916962</v>
+        <v>102.946338</v>
       </c>
     </row>
     <row r="195">
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="B195">
-        <v>101.2498161271687</v>
+        <v>101.249816</v>
       </c>
     </row>
     <row r="196">
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="B196">
-        <v>101.7027230876143</v>
+        <v>101.702723</v>
       </c>
     </row>
     <row r="197">
@@ -2326,7 +2326,7 @@
         </is>
       </c>
       <c r="B197">
-        <v>102.6138268583041</v>
+        <v>102.613827</v>
       </c>
     </row>
     <row r="198">
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="B198">
-        <v>102.0339687769791</v>
+        <v>102.033969</v>
       </c>
     </row>
     <row r="199">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="B199">
-        <v>101.3834012246711</v>
+        <v>101.383401</v>
       </c>
     </row>
     <row r="200">
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="B200">
-        <v>101.32556089546</v>
+        <v>101.325561</v>
       </c>
     </row>
     <row r="201">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="B201">
-        <v>101.6388580999628</v>
+        <v>101.638858</v>
       </c>
     </row>
     <row r="202">
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="B202">
-        <v>102.0398037698109</v>
+        <v>102.039804</v>
       </c>
     </row>
     <row r="203">
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="B203">
-        <v>101.2253568546637</v>
+        <v>101.225357</v>
       </c>
     </row>
     <row r="204">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B204">
-        <v>100.6063241752764</v>
+        <v>100.606324</v>
       </c>
     </row>
     <row r="205">
@@ -2406,7 +2406,7 @@
         </is>
       </c>
       <c r="B205">
-        <v>102.0045703111586</v>
+        <v>102.00457</v>
       </c>
     </row>
     <row r="206">
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="B206">
-        <v>103.0834803747487</v>
+        <v>103.08348</v>
       </c>
     </row>
     <row r="207">
@@ -2426,7 +2426,7 @@
         </is>
       </c>
       <c r="B207">
-        <v>101.3351301993582</v>
+        <v>101.33513</v>
       </c>
     </row>
     <row r="208">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="B208">
-        <v>100.3519053949724</v>
+        <v>100.351905</v>
       </c>
     </row>
     <row r="209">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="B209">
-        <v>99.3623448877282</v>
+        <v>99.362345</v>
       </c>
     </row>
     <row r="210">
@@ -2456,7 +2456,7 @@
         </is>
       </c>
       <c r="B210">
-        <v>100.1219302251622</v>
+        <v>100.12193</v>
       </c>
     </row>
     <row r="211">
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="B211">
-        <v>100.1528473406987</v>
+        <v>100.152847</v>
       </c>
     </row>
     <row r="212">
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="B212">
-        <v>100.0451990706585</v>
+        <v>100.045199</v>
       </c>
     </row>
     <row r="213">
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="B213">
-        <v>100.6135150637833</v>
+        <v>100.613515</v>
       </c>
     </row>
     <row r="214">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="B214">
-        <v>98.82469965859039</v>
+        <v>98.82470000000001</v>
       </c>
     </row>
     <row r="215">
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="B215">
-        <v>99.43217305284581</v>
+        <v>99.43217300000001</v>
       </c>
     </row>
     <row r="216">
@@ -2516,7 +2516,7 @@
         </is>
       </c>
       <c r="B216">
-        <v>98.21431723837459</v>
+        <v>98.21431699999999</v>
       </c>
     </row>
     <row r="217">
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="B217">
-        <v>98.86206497110379</v>
+        <v>98.862065</v>
       </c>
     </row>
     <row r="218">
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="B218">
-        <v>99.19448964945703</v>
+        <v>99.19449</v>
       </c>
     </row>
     <row r="219">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="B219">
-        <v>98.00893600702538</v>
+        <v>98.00893600000001</v>
       </c>
     </row>
     <row r="220">
@@ -2556,7 +2556,7 @@
         </is>
       </c>
       <c r="B220">
-        <v>97.97526539745279</v>
+        <v>97.97526499999999</v>
       </c>
     </row>
     <row r="221">
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="B221">
-        <v>98.5333591722495</v>
+        <v>98.533359</v>
       </c>
     </row>
     <row r="222">
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="B222">
-        <v>97.25354126563934</v>
+        <v>97.253541</v>
       </c>
     </row>
     <row r="223">
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="B223">
-        <v>96.62927317098344</v>
+        <v>96.629273</v>
       </c>
     </row>
     <row r="224">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="B224">
-        <v>97.86717966164464</v>
+        <v>97.86718</v>
       </c>
     </row>
     <row r="225">
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="B225">
-        <v>97.61808007826757</v>
+        <v>97.61808000000001</v>
       </c>
     </row>
     <row r="226">
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="B226">
-        <v>99.30584192176751</v>
+        <v>99.305842</v>
       </c>
     </row>
     <row r="227">
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="B227">
-        <v>99.78445739703568</v>
+        <v>99.784457</v>
       </c>
     </row>
     <row r="228">
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="B228">
-        <v>100.0245814953967</v>
+        <v>100.024581</v>
       </c>
     </row>
     <row r="229">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="B229">
-        <v>101.2706991543866</v>
+        <v>101.270699</v>
       </c>
     </row>
     <row r="230">
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="B230">
-        <v>101.6116715793557</v>
+        <v>101.611672</v>
       </c>
     </row>
     <row r="231">
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="B231">
-        <v>101.6535676741037</v>
+        <v>101.653568</v>
       </c>
     </row>
     <row r="232">
@@ -2676,7 +2676,7 @@
         </is>
       </c>
       <c r="B232">
-        <v>101.5021616691882</v>
+        <v>101.502162</v>
       </c>
     </row>
     <row r="233">
@@ -2686,7 +2686,7 @@
         </is>
       </c>
       <c r="B233">
-        <v>101.270900938612</v>
+        <v>101.270901</v>
       </c>
     </row>
     <row r="234">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="B234">
-        <v>101.6605372693941</v>
+        <v>101.660537</v>
       </c>
     </row>
     <row r="235">
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="B235">
-        <v>102.1635435040396</v>
+        <v>102.163544</v>
       </c>
     </row>
     <row r="236">
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="B236">
-        <v>102.7855380539312</v>
+        <v>102.785538</v>
       </c>
     </row>
     <row r="237">
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="B237">
-        <v>102.1610323056111</v>
+        <v>102.161032</v>
       </c>
     </row>
     <row r="238">
@@ -2736,7 +2736,7 @@
         </is>
       </c>
       <c r="B238">
-        <v>101.7287035881854</v>
+        <v>101.728704</v>
       </c>
     </row>
     <row r="239">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="B239">
-        <v>101.1102091720102</v>
+        <v>101.110209</v>
       </c>
     </row>
     <row r="240">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="B240">
-        <v>101.1365035241318</v>
+        <v>101.136504</v>
       </c>
     </row>
     <row r="241">
@@ -2766,7 +2766,7 @@
         </is>
       </c>
       <c r="B241">
-        <v>99.98240258471152</v>
+        <v>99.98240300000001</v>
       </c>
     </row>
     <row r="242">
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="B242">
-        <v>99.0029714921032</v>
+        <v>99.002971</v>
       </c>
     </row>
     <row r="243">
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="B243">
-        <v>98.20315559433013</v>
+        <v>98.20315600000001</v>
       </c>
     </row>
     <row r="244">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="B244">
-        <v>98.09824488473424</v>
+        <v>98.09824500000001</v>
       </c>
     </row>
     <row r="245">
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="B245">
-        <v>98.05810043541459</v>
+        <v>98.0581</v>
       </c>
     </row>
     <row r="246">
@@ -2816,7 +2816,7 @@
         </is>
       </c>
       <c r="B246">
-        <v>98.93756575404201</v>
+        <v>98.937566</v>
       </c>
     </row>
     <row r="247">
@@ -2826,7 +2826,7 @@
         </is>
       </c>
       <c r="B247">
-        <v>98.25948455429308</v>
+        <v>98.259485</v>
       </c>
     </row>
     <row r="248">
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="B248">
-        <v>98.94610404757783</v>
+        <v>98.94610400000001</v>
       </c>
     </row>
     <row r="249">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="B249">
-        <v>98.97443313248075</v>
+        <v>98.974433</v>
       </c>
     </row>
     <row r="250">
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="B250">
-        <v>99.20602534279553</v>
+        <v>99.206025</v>
       </c>
     </row>
     <row r="251">
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="B251">
-        <v>99.11463913618138</v>
+        <v>99.114639</v>
       </c>
     </row>
     <row r="252">
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="B252">
-        <v>99.80225608133203</v>
+        <v>99.802256</v>
       </c>
     </row>
     <row r="253">
@@ -2886,7 +2886,7 @@
         </is>
       </c>
       <c r="B253">
-        <v>101.631422528394</v>
+        <v>101.631423</v>
       </c>
     </row>
     <row r="254">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="B254">
-        <v>102.2959978906219</v>
+        <v>102.295998</v>
       </c>
     </row>
     <row r="255">
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="B255">
-        <v>102.5263335988444</v>
+        <v>102.526334</v>
       </c>
     </row>
     <row r="256">
@@ -2916,7 +2916,7 @@
         </is>
       </c>
       <c r="B256">
-        <v>101.8694046587544</v>
+        <v>101.869405</v>
       </c>
     </row>
     <row r="257">
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="B257">
-        <v>101.2846359294907</v>
+        <v>101.284636</v>
       </c>
     </row>
     <row r="258">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="B258">
-        <v>101.4352428535785</v>
+        <v>101.435243</v>
       </c>
     </row>
     <row r="259">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="B259">
-        <v>101.2780382240944</v>
+        <v>101.278038</v>
       </c>
     </row>
     <row r="260">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="B260">
-        <v>100.8514062534519</v>
+        <v>100.851406</v>
       </c>
     </row>
     <row r="261">
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="B261">
-        <v>101.2084296381499</v>
+        <v>101.20843</v>
       </c>
     </row>
     <row r="262">
@@ -2976,7 +2976,7 @@
         </is>
       </c>
       <c r="B262">
-        <v>100.875187895647</v>
+        <v>100.875188</v>
       </c>
     </row>
     <row r="263">
@@ -2986,7 +2986,7 @@
         </is>
       </c>
       <c r="B263">
-        <v>100.5712579678687</v>
+        <v>100.571258</v>
       </c>
     </row>
     <row r="264">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="B264">
-        <v>100.4707625836807</v>
+        <v>100.470763</v>
       </c>
     </row>
     <row r="265">
@@ -3006,7 +3006,7 @@
         </is>
       </c>
       <c r="B265">
-        <v>101.2792194388497</v>
+        <v>101.279219</v>
       </c>
     </row>
     <row r="266">
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="B266">
-        <v>101.0361235555501</v>
+        <v>101.036124</v>
       </c>
     </row>
     <row r="267">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B267">
-        <v>101.9693104910676</v>
+        <v>101.96931</v>
       </c>
     </row>
     <row r="268">
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="B268">
-        <v>101.1517983137498</v>
+        <v>101.151798</v>
       </c>
     </row>
     <row r="269">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="B269">
-        <v>102.2100938562648</v>
+        <v>102.210094</v>
       </c>
     </row>
     <row r="270">
@@ -3056,7 +3056,7 @@
         </is>
       </c>
       <c r="B270">
-        <v>103.0022341125189</v>
+        <v>103.002234</v>
       </c>
     </row>
     <row r="271">
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="B271">
-        <v>103.045495268725</v>
+        <v>103.045495</v>
       </c>
     </row>
     <row r="272">
@@ -3076,7 +3076,7 @@
         </is>
       </c>
       <c r="B272">
-        <v>101.9867611094274</v>
+        <v>101.986761</v>
       </c>
     </row>
     <row r="273">
@@ -3086,7 +3086,7 @@
         </is>
       </c>
       <c r="B273">
-        <v>100.2082911173181</v>
+        <v>100.208291</v>
       </c>
     </row>
     <row r="274">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="B274">
-        <v>100.7580981167609</v>
+        <v>100.758098</v>
       </c>
     </row>
     <row r="275">
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="B275">
-        <v>100.4713014891711</v>
+        <v>100.471301</v>
       </c>
     </row>
     <row r="276">
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="B276">
-        <v>100.159106751789</v>
+        <v>100.159107</v>
       </c>
     </row>
     <row r="277">
@@ -3126,7 +3126,7 @@
         </is>
       </c>
       <c r="B277">
-        <v>99.861154711205</v>
+        <v>99.861155</v>
       </c>
     </row>
     <row r="278">
@@ -3136,7 +3136,7 @@
         </is>
       </c>
       <c r="B278">
-        <v>101.1821310080328</v>
+        <v>101.182131</v>
       </c>
     </row>
     <row r="279">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="B279">
-        <v>102.3422975556979</v>
+        <v>102.342298</v>
       </c>
     </row>
     <row r="280">
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="B280">
-        <v>103.4038412403363</v>
+        <v>103.403841</v>
       </c>
     </row>
     <row r="281">
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="B281">
-        <v>102.8465487331273</v>
+        <v>102.846549</v>
       </c>
     </row>
     <row r="282">
@@ -3176,7 +3176,7 @@
         </is>
       </c>
       <c r="B282">
-        <v>103.4984351609683</v>
+        <v>103.498435</v>
       </c>
     </row>
     <row r="283">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B283">
-        <v>103.7425412503204</v>
+        <v>103.742541</v>
       </c>
     </row>
     <row r="284">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="B284">
-        <v>102.0128385130976</v>
+        <v>102.012839</v>
       </c>
     </row>
     <row r="285">
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="B285">
-        <v>99.43345920658528</v>
+        <v>99.433459</v>
       </c>
     </row>
     <row r="286">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="B286">
-        <v>100.6346925430012</v>
+        <v>100.634693</v>
       </c>
     </row>
     <row r="287">
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="B287">
-        <v>100.9227648195478</v>
+        <v>100.922765</v>
       </c>
     </row>
     <row r="288">
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="B288">
-        <v>100.5716026260606</v>
+        <v>100.571603</v>
       </c>
     </row>
     <row r="289">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="B289">
-        <v>99.92244553415824</v>
+        <v>99.92244599999999</v>
       </c>
     </row>
     <row r="290">
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="B290">
-        <v>100.0855268016683</v>
+        <v>100.085527</v>
       </c>
     </row>
     <row r="291">
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="B291">
-        <v>98.98820794827587</v>
+        <v>98.988208</v>
       </c>
     </row>
     <row r="292">
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="B292">
-        <v>99.00514174449457</v>
+        <v>99.00514200000001</v>
       </c>
     </row>
     <row r="293">
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="B293">
-        <v>100.3324189917585</v>
+        <v>100.332419</v>
       </c>
     </row>
     <row r="294">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="B294">
-        <v>99.45827148039832</v>
+        <v>99.458271</v>
       </c>
     </row>
     <row r="295">
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="B295">
-        <v>99.34375019640596</v>
+        <v>99.34375</v>
       </c>
     </row>
     <row r="296">
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="B296">
-        <v>99.56717814650811</v>
+        <v>99.567178</v>
       </c>
     </row>
     <row r="297">
@@ -3326,7 +3326,7 @@
         </is>
       </c>
       <c r="B297">
-        <v>99.18352240606541</v>
+        <v>99.183522</v>
       </c>
     </row>
     <row r="298">
@@ -3336,7 +3336,7 @@
         </is>
       </c>
       <c r="B298">
-        <v>99.39664387453482</v>
+        <v>99.39664399999999</v>
       </c>
     </row>
     <row r="299">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="B299">
-        <v>97.49610277840183</v>
+        <v>97.49610300000001</v>
       </c>
     </row>
     <row r="300">
@@ -3356,7 +3356,7 @@
         </is>
       </c>
       <c r="B300">
-        <v>99.03547864168443</v>
+        <v>99.035479</v>
       </c>
     </row>
     <row r="301">
@@ -3366,7 +3366,7 @@
         </is>
       </c>
       <c r="B301">
-        <v>99.29527498459532</v>
+        <v>99.295275</v>
       </c>
     </row>
     <row r="302">
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="B302">
-        <v>98.45558923962984</v>
+        <v>98.455589</v>
       </c>
     </row>
     <row r="303">
@@ -3386,7 +3386,7 @@
         </is>
       </c>
       <c r="B303">
-        <v>98.36741036424267</v>
+        <v>98.36741000000001</v>
       </c>
     </row>
     <row r="304">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="B304">
-        <v>97.00778313917699</v>
+        <v>97.007783</v>
       </c>
     </row>
     <row r="305">
@@ -3406,7 +3406,7 @@
         </is>
       </c>
       <c r="B305">
-        <v>96.44938452767032</v>
+        <v>96.44938500000001</v>
       </c>
     </row>
     <row r="306">
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="B306">
-        <v>96.22172177678898</v>
+        <v>96.221722</v>
       </c>
     </row>
     <row r="307">
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="B307">
-        <v>95.19031346331219</v>
+        <v>95.190313</v>
       </c>
     </row>
     <row r="308">
@@ -3436,7 +3436,7 @@
         </is>
       </c>
       <c r="B308">
-        <v>94.06461265230182</v>
+        <v>94.06461299999999</v>
       </c>
     </row>
     <row r="309">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="B309">
-        <v>95.15769588902369</v>
+        <v>95.157696</v>
       </c>
     </row>
     <row r="310">
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="B310">
-        <v>94.79837587837861</v>
+        <v>94.798376</v>
       </c>
     </row>
     <row r="311">
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="B311">
-        <v>94.65093793009875</v>
+        <v>94.650938</v>
       </c>
     </row>
     <row r="312">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="B312">
-        <v>96.10221094462528</v>
+        <v>96.102211</v>
       </c>
     </row>
     <row r="313">
@@ -3486,7 +3486,7 @@
         </is>
       </c>
       <c r="B313">
-        <v>94.62014523720939</v>
+        <v>94.62014499999999</v>
       </c>
     </row>
     <row r="314">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="B314">
-        <v>93.19365983825385</v>
+        <v>93.19365999999999</v>
       </c>
     </row>
     <row r="315">
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="B315">
-        <v>93.15869100617299</v>
+        <v>93.158691</v>
       </c>
     </row>
     <row r="316">
@@ -3516,7 +3516,7 @@
         </is>
       </c>
       <c r="B316">
-        <v>92.33639231715718</v>
+        <v>92.336392</v>
       </c>
     </row>
     <row r="317">
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="B317">
-        <v>92.74307031413701</v>
+        <v>92.74307</v>
       </c>
     </row>
     <row r="318">
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="B318">
-        <v>93.07621577173505</v>
+        <v>93.076216</v>
       </c>
     </row>
     <row r="319">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="B319">
-        <v>93.68890780081554</v>
+        <v>93.688908</v>
       </c>
     </row>
     <row r="320">
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="B320">
-        <v>94.1901236673079</v>
+        <v>94.190124</v>
       </c>
     </row>
     <row r="321">
@@ -3566,7 +3566,7 @@
         </is>
       </c>
       <c r="B321">
-        <v>94.44982656916933</v>
+        <v>94.449827</v>
       </c>
     </row>
     <row r="322">
@@ -3576,7 +3576,7 @@
         </is>
       </c>
       <c r="B322">
-        <v>94.67433038531209</v>
+        <v>94.67433</v>
       </c>
     </row>
     <row r="323">
@@ -3586,7 +3586,7 @@
         </is>
       </c>
       <c r="B323">
-        <v>95.35485027992414</v>
+        <v>95.35485</v>
       </c>
     </row>
     <row r="324">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="B324">
-        <v>94.42330384584842</v>
+        <v>94.423304</v>
       </c>
     </row>
     <row r="325">
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="B325">
-        <v>93.98933787995297</v>
+        <v>93.989338</v>
       </c>
     </row>
     <row r="326">
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="B326">
-        <v>94.10564274055237</v>
+        <v>94.105643</v>
       </c>
     </row>
     <row r="327">
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="B327">
-        <v>95.13286208768814</v>
+        <v>95.132862</v>
       </c>
     </row>
     <row r="328">
@@ -3636,7 +3636,7 @@
         </is>
       </c>
       <c r="B328">
-        <v>93.36598105599361</v>
+        <v>93.365981</v>
       </c>
     </row>
     <row r="329">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="B329">
-        <v>93.79274178680103</v>
+        <v>93.792742</v>
       </c>
     </row>
     <row r="330">
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="B330">
-        <v>93.87440270678032</v>
+        <v>93.874403</v>
       </c>
     </row>
     <row r="331">
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="B331">
-        <v>93.7795478782609</v>
+        <v>93.77954800000001</v>
       </c>
     </row>
     <row r="332">
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="B332">
-        <v>93.34287957027095</v>
+        <v>93.34287999999999</v>
       </c>
     </row>
     <row r="333">
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="B333">
-        <v>93.67457972375557</v>
+        <v>93.67458000000001</v>
       </c>
     </row>
     <row r="334">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="B334">
-        <v>93.6819650568484</v>
+        <v>93.68196500000001</v>
       </c>
     </row>
     <row r="335">
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B335">
-        <v>93.04020195798998</v>
+        <v>93.04020199999999</v>
       </c>
     </row>
     <row r="336">
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="B336">
-        <v>93.12813335410752</v>
+        <v>93.12813300000001</v>
       </c>
     </row>
     <row r="337">
@@ -3726,7 +3726,7 @@
         </is>
       </c>
       <c r="B337">
-        <v>93.45268458642265</v>
+        <v>93.452685</v>
       </c>
     </row>
     <row r="338">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="B338">
-        <v>92.92402174909294</v>
+        <v>92.92402199999999</v>
       </c>
     </row>
     <row r="339">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="B339">
-        <v>92.50875839865219</v>
+        <v>92.508758</v>
       </c>
     </row>
     <row r="340">
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="B340">
-        <v>92.94718074210729</v>
+        <v>92.947181</v>
       </c>
     </row>
     <row r="341">
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="B341">
-        <v>92.02377810551303</v>
+        <v>92.02377799999999</v>
       </c>
     </row>
     <row r="342">
@@ -3776,7 +3776,7 @@
         </is>
       </c>
       <c r="B342">
-        <v>91.9332827084346</v>
+        <v>91.933283</v>
       </c>
     </row>
     <row r="343">
@@ -3786,7 +3786,7 @@
         </is>
       </c>
       <c r="B343">
-        <v>92.75208810368396</v>
+        <v>92.752088</v>
       </c>
     </row>
     <row r="344">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="B344">
-        <v>93.14097007900548</v>
+        <v>93.14097</v>
       </c>
     </row>
     <row r="345">
@@ -3806,7 +3806,7 @@
         </is>
       </c>
       <c r="B345">
-        <v>92.3486103695214</v>
+        <v>92.34860999999999</v>
       </c>
     </row>
     <row r="346">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B346">
-        <v>93.02724784806172</v>
+        <v>93.027248</v>
       </c>
     </row>
     <row r="347">
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="B347">
-        <v>95.48774854934388</v>
+        <v>95.48774899999999</v>
       </c>
     </row>
     <row r="348">
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="B348">
-        <v>96.0125358276608</v>
+        <v>96.012536</v>
       </c>
     </row>
     <row r="349">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="B349">
-        <v>94.17499489909351</v>
+        <v>94.174995</v>
       </c>
     </row>
     <row r="350">
@@ -3856,7 +3856,7 @@
         </is>
       </c>
       <c r="B350">
-        <v>92.82578881341828</v>
+        <v>92.825789</v>
       </c>
     </row>
     <row r="351">
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="B351">
-        <v>94.60755929212061</v>
+        <v>94.60755899999999</v>
       </c>
     </row>
     <row r="352">
@@ -3876,7 +3876,7 @@
         </is>
       </c>
       <c r="B352">
-        <v>94.91913857045279</v>
+        <v>94.919139</v>
       </c>
     </row>
     <row r="353">
@@ -3886,7 +3886,7 @@
         </is>
       </c>
       <c r="B353">
-        <v>93.63001009451042</v>
+        <v>93.63001</v>
       </c>
     </row>
     <row r="354">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="B354">
-        <v>93.46969872101091</v>
+        <v>93.46969900000001</v>
       </c>
     </row>
     <row r="355">
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="B355">
-        <v>93.69920604451313</v>
+        <v>93.699206</v>
       </c>
     </row>
     <row r="356">
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="B356">
-        <v>93.20064873615387</v>
+        <v>93.200649</v>
       </c>
     </row>
     <row r="357">
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="B357">
-        <v>93.0699344337567</v>
+        <v>93.069934</v>
       </c>
     </row>
     <row r="358">
@@ -3936,7 +3936,7 @@
         </is>
       </c>
       <c r="B358">
-        <v>93.96013718281863</v>
+        <v>93.960137</v>
       </c>
     </row>
     <row r="359">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="B359">
-        <v>93.3285875448759</v>
+        <v>93.328588</v>
       </c>
     </row>
     <row r="360">
@@ -3956,7 +3956,7 @@
         </is>
       </c>
       <c r="B360">
-        <v>93.76896684299345</v>
+        <v>93.768967</v>
       </c>
     </row>
     <row r="361">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B361">
-        <v>95.45001871875343</v>
+        <v>95.450019</v>
       </c>
     </row>
     <row r="362">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B362">
-        <v>96.04740244749024</v>
+        <v>96.04740200000001</v>
       </c>
     </row>
     <row r="363">
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="B363">
-        <v>96.32209235530053</v>
+        <v>96.322092</v>
       </c>
     </row>
     <row r="364">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="B364">
-        <v>95.4939969113757</v>
+        <v>95.49399699999999</v>
       </c>
     </row>
     <row r="365">
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B365">
-        <v>95.20792258782906</v>
+        <v>95.20792299999999</v>
       </c>
     </row>
     <row r="366">
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="B366">
-        <v>97.61938016540691</v>
+        <v>97.61938000000001</v>
       </c>
     </row>
     <row r="367">
@@ -4026,7 +4026,7 @@
         </is>
       </c>
       <c r="B367">
-        <v>97.59395386678274</v>
+        <v>97.593954</v>
       </c>
     </row>
     <row r="368">
@@ -4036,7 +4036,7 @@
         </is>
       </c>
       <c r="B368">
-        <v>98.59911117703911</v>
+        <v>98.59911099999999</v>
       </c>
     </row>
     <row r="369">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="B369">
-        <v>98.59967892096185</v>
+        <v>98.59967899999999</v>
       </c>
     </row>
     <row r="370">
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="B370">
-        <v>98.74675848807598</v>
+        <v>98.746758</v>
       </c>
     </row>
     <row r="371">
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B371">
-        <v>99.12120730622421</v>
+        <v>99.121207</v>
       </c>
     </row>
     <row r="372">
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="B372">
-        <v>99.29312949947038</v>
+        <v>99.29312899999999</v>
       </c>
     </row>
     <row r="373">
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="B373">
-        <v>97.98533103524659</v>
+        <v>97.985331</v>
       </c>
     </row>
     <row r="374">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="B374">
-        <v>99.16517200016079</v>
+        <v>99.165172</v>
       </c>
     </row>
     <row r="375">
@@ -4106,7 +4106,7 @@
         </is>
       </c>
       <c r="B375">
-        <v>99.29763457534165</v>
+        <v>99.297635</v>
       </c>
     </row>
     <row r="376">
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="B376">
-        <v>100.5040732075524</v>
+        <v>100.504073</v>
       </c>
     </row>
     <row r="377">
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="B377">
-        <v>99.72365335612162</v>
+        <v>99.723653</v>
       </c>
     </row>
     <row r="378">
@@ -4136,7 +4136,7 @@
         </is>
       </c>
       <c r="B378">
-        <v>97.91003423767857</v>
+        <v>97.910034</v>
       </c>
     </row>
     <row r="379">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="B379">
-        <v>97.29021576959248</v>
+        <v>97.290216</v>
       </c>
     </row>
     <row r="380">
@@ -4156,7 +4156,7 @@
         </is>
       </c>
       <c r="B380">
-        <v>97.59733614832879</v>
+        <v>97.597336</v>
       </c>
     </row>
     <row r="381">
@@ -4166,7 +4166,7 @@
         </is>
       </c>
       <c r="B381">
-        <v>97.9394519368806</v>
+        <v>97.939452</v>
       </c>
     </row>
     <row r="382">
@@ -4176,7 +4176,7 @@
         </is>
       </c>
       <c r="B382">
-        <v>97.33519461912461</v>
+        <v>97.335195</v>
       </c>
     </row>
     <row r="383">
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="B383">
-        <v>96.26880204119658</v>
+        <v>96.26880199999999</v>
       </c>
     </row>
     <row r="384">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="B384">
-        <v>95.87770295512269</v>
+        <v>95.877703</v>
       </c>
     </row>
     <row r="385">
@@ -4206,7 +4206,7 @@
         </is>
       </c>
       <c r="B385">
-        <v>95.83355280574722</v>
+        <v>95.83355299999999</v>
       </c>
     </row>
     <row r="386">
@@ -4216,7 +4216,7 @@
         </is>
       </c>
       <c r="B386">
-        <v>96.85169226806012</v>
+        <v>96.851692</v>
       </c>
     </row>
     <row r="387">
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="B387">
-        <v>97.27436888520914</v>
+        <v>97.27436899999999</v>
       </c>
     </row>
     <row r="388">
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="B388">
-        <v>95.86677121801091</v>
+        <v>95.866771</v>
       </c>
     </row>
     <row r="389">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="B389">
-        <v>96.1814103571285</v>
+        <v>96.18141</v>
       </c>
     </row>
     <row r="390">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="B390">
-        <v>96.07273632423208</v>
+        <v>96.07273600000001</v>
       </c>
     </row>
     <row r="391">
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="B391">
-        <v>96.62208103658745</v>
+        <v>96.62208099999999</v>
       </c>
     </row>
     <row r="392">
@@ -4276,7 +4276,7 @@
         </is>
       </c>
       <c r="B392">
-        <v>96.45486079953865</v>
+        <v>96.45486099999999</v>
       </c>
     </row>
     <row r="393">
@@ -4286,7 +4286,7 @@
         </is>
       </c>
       <c r="B393">
-        <v>95.36950140219092</v>
+        <v>95.369501</v>
       </c>
     </row>
     <row r="394">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="B394">
-        <v>96.59117421869361</v>
+        <v>96.591174</v>
       </c>
     </row>
     <row r="395">
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B395">
-        <v>97.41783175670747</v>
+        <v>97.417832</v>
       </c>
     </row>
     <row r="396">
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="B396">
-        <v>96.42954856267465</v>
+        <v>96.42954899999999</v>
       </c>
     </row>
     <row r="397">
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="B397">
-        <v>98.56687543835703</v>
+        <v>98.566875</v>
       </c>
     </row>
     <row r="398">
@@ -4336,7 +4336,7 @@
         </is>
       </c>
       <c r="B398">
-        <v>99.33736877643528</v>
+        <v>99.337369</v>
       </c>
     </row>
     <row r="399">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="B399">
-        <v>98.77980437452133</v>
+        <v>98.779804</v>
       </c>
     </row>
     <row r="400">
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="B400">
-        <v>100.7023597837767</v>
+        <v>100.70236</v>
       </c>
     </row>
     <row r="401">
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="B401">
-        <v>100.1920162486061</v>
+        <v>100.192016</v>
       </c>
     </row>
     <row r="402">
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="B402">
-        <v>100.5821786728761</v>
+        <v>100.582179</v>
       </c>
     </row>
     <row r="403">
@@ -4386,7 +4386,7 @@
         </is>
       </c>
       <c r="B403">
-        <v>99.40799448493817</v>
+        <v>99.407994</v>
       </c>
     </row>
     <row r="404">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="B404">
-        <v>99.04367477476357</v>
+        <v>99.04367499999999</v>
       </c>
     </row>
     <row r="405">
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="B405">
-        <v>99.64930841968511</v>
+        <v>99.649308</v>
       </c>
     </row>
     <row r="406">
@@ -4416,7 +4416,7 @@
         </is>
       </c>
       <c r="B406">
-        <v>99.58184355356927</v>
+        <v>99.581844</v>
       </c>
     </row>
     <row r="407">
@@ -4426,7 +4426,7 @@
         </is>
       </c>
       <c r="B407">
-        <v>99.07463454918056</v>
+        <v>99.074635</v>
       </c>
     </row>
     <row r="408">
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="B408">
-        <v>100.9619355604598</v>
+        <v>100.961936</v>
       </c>
     </row>
     <row r="409">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="B409">
-        <v>99.96249909088203</v>
+        <v>99.96249899999999</v>
       </c>
     </row>
     <row r="410">
@@ -4456,7 +4456,7 @@
         </is>
       </c>
       <c r="B410">
-        <v>101.3234041988821</v>
+        <v>101.323404</v>
       </c>
     </row>
     <row r="411">
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="B411">
-        <v>98.45253600912702</v>
+        <v>98.45253599999999</v>
       </c>
     </row>
     <row r="412">
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="B412">
-        <v>100.2662798007545</v>
+        <v>100.26628</v>
       </c>
     </row>
     <row r="413">
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="B413">
-        <v>98.80822021731952</v>
+        <v>98.80822000000001</v>
       </c>
     </row>
     <row r="414">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="B414">
-        <v>98.95536660233257</v>
+        <v>98.955367</v>
       </c>
     </row>
     <row r="415">
@@ -4506,7 +4506,7 @@
         </is>
       </c>
       <c r="B415">
-        <v>99.33275545456137</v>
+        <v>99.33275500000001</v>
       </c>
     </row>
     <row r="416">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="B416">
-        <v>99.06892186880529</v>
+        <v>99.068922</v>
       </c>
     </row>
     <row r="417">
@@ -4526,7 +4526,7 @@
         </is>
       </c>
       <c r="B417">
-        <v>99.84492114212512</v>
+        <v>99.844921</v>
       </c>
     </row>
     <row r="418">
@@ -4536,7 +4536,7 @@
         </is>
       </c>
       <c r="B418">
-        <v>100.1503023263955</v>
+        <v>100.150302</v>
       </c>
     </row>
     <row r="419">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="B419">
-        <v>100.0229960285904</v>
+        <v>100.022996</v>
       </c>
     </row>
     <row r="420">
@@ -4556,7 +4556,7 @@
         </is>
       </c>
       <c r="B420">
-        <v>100.6266123507895</v>
+        <v>100.626612</v>
       </c>
     </row>
     <row r="421">
@@ -4566,7 +4566,7 @@
         </is>
       </c>
       <c r="B421">
-        <v>99.08739494894795</v>
+        <v>99.087395</v>
       </c>
     </row>
     <row r="422">
@@ -4576,7 +4576,7 @@
         </is>
       </c>
       <c r="B422">
-        <v>98.04957841680982</v>
+        <v>98.049578</v>
       </c>
     </row>
     <row r="423">
@@ -4586,7 +4586,7 @@
         </is>
       </c>
       <c r="B423">
-        <v>97.48621635294062</v>
+        <v>97.486216</v>
       </c>
     </row>
     <row r="424">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="B424">
-        <v>97.99780710661317</v>
+        <v>97.99780699999999</v>
       </c>
     </row>
     <row r="425">
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="B425">
-        <v>97.11888017105788</v>
+        <v>97.11888</v>
       </c>
     </row>
     <row r="426">
@@ -4616,7 +4616,7 @@
         </is>
       </c>
       <c r="B426">
-        <v>99.23996486130508</v>
+        <v>99.239965</v>
       </c>
     </row>
     <row r="427">
@@ -4626,7 +4626,7 @@
         </is>
       </c>
       <c r="B427">
-        <v>99.08353925244624</v>
+        <v>99.083539</v>
       </c>
     </row>
     <row r="428">
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="B428">
-        <v>98.95274363149291</v>
+        <v>98.952744</v>
       </c>
     </row>
     <row r="429">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="B429">
-        <v>98.26829251402808</v>
+        <v>98.268293</v>
       </c>
     </row>
     <row r="430">
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="B430">
-        <v>100.0433829575157</v>
+        <v>100.043383</v>
       </c>
     </row>
     <row r="431">
@@ -4666,7 +4666,7 @@
         </is>
       </c>
       <c r="B431">
-        <v>100.7870780277987</v>
+        <v>100.787078</v>
       </c>
     </row>
     <row r="432">
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="B432">
-        <v>101.0386377923423</v>
+        <v>101.038638</v>
       </c>
     </row>
     <row r="433">
@@ -4686,7 +4686,7 @@
         </is>
       </c>
       <c r="B433">
-        <v>99.65387509305653</v>
+        <v>99.653875</v>
       </c>
     </row>
     <row r="434">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="B434">
-        <v>98.41882512107587</v>
+        <v>98.418825</v>
       </c>
     </row>
     <row r="435">
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="B435">
-        <v>98.69758773797602</v>
+        <v>98.697588</v>
       </c>
     </row>
     <row r="436">
@@ -4716,7 +4716,7 @@
         </is>
       </c>
       <c r="B436">
-        <v>99.18276733034361</v>
+        <v>99.182767</v>
       </c>
     </row>
     <row r="437">
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="B437">
-        <v>98.8133795800441</v>
+        <v>98.81338</v>
       </c>
     </row>
     <row r="438">
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="B438">
-        <v>100.1174970036673</v>
+        <v>100.117497</v>
       </c>
     </row>
     <row r="439">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="B439">
-        <v>99.19242651700819</v>
+        <v>99.192427</v>
       </c>
     </row>
     <row r="440">
@@ -4756,7 +4756,7 @@
         </is>
       </c>
       <c r="B440">
-        <v>98.89140418599726</v>
+        <v>98.89140399999999</v>
       </c>
     </row>
     <row r="441">
@@ -4766,7 +4766,7 @@
         </is>
       </c>
       <c r="B441">
-        <v>100.3016202165628</v>
+        <v>100.30162</v>
       </c>
     </row>
     <row r="442">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="B442">
-        <v>100.2930781867203</v>
+        <v>100.293078</v>
       </c>
     </row>
     <row r="443">
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="B443">
-        <v>99.17520113605204</v>
+        <v>99.175201</v>
       </c>
     </row>
     <row r="444">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="B444">
-        <v>99.95780859835904</v>
+        <v>99.957809</v>
       </c>
     </row>
     <row r="445">
@@ -4806,7 +4806,7 @@
         </is>
       </c>
       <c r="B445">
-        <v>100.2242052965759</v>
+        <v>100.224205</v>
       </c>
     </row>
     <row r="446">
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="B446">
-        <v>99.51653566920233</v>
+        <v>99.516536</v>
       </c>
     </row>
     <row r="447">
@@ -4826,7 +4826,7 @@
         </is>
       </c>
       <c r="B447">
-        <v>99.54226606063659</v>
+        <v>99.542266</v>
       </c>
     </row>
     <row r="448">
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="B448">
-        <v>100.1708194870135</v>
+        <v>100.170819</v>
       </c>
     </row>
     <row r="449">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="B449">
-        <v>100.2848747102478</v>
+        <v>100.284875</v>
       </c>
     </row>
     <row r="450">
@@ -4856,7 +4856,7 @@
         </is>
       </c>
       <c r="B450">
-        <v>99.82392644819292</v>
+        <v>99.823926</v>
       </c>
     </row>
     <row r="451">
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="B451">
-        <v>99.21374985435097</v>
+        <v>99.21375</v>
       </c>
     </row>
     <row r="452">
@@ -4876,7 +4876,7 @@
         </is>
       </c>
       <c r="B452">
-        <v>98.90768207966947</v>
+        <v>98.90768199999999</v>
       </c>
     </row>
     <row r="453">
@@ -4886,7 +4886,7 @@
         </is>
       </c>
       <c r="B453">
-        <v>99.11466212780491</v>
+        <v>99.114662</v>
       </c>
     </row>
     <row r="454">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="B454">
-        <v>100.4889025207931</v>
+        <v>100.488903</v>
       </c>
     </row>
     <row r="455">
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="B455">
-        <v>97.79217036228967</v>
+        <v>97.79217</v>
       </c>
     </row>
     <row r="456">
@@ -4916,7 +4916,7 @@
         </is>
       </c>
       <c r="B456">
-        <v>97.46173660911653</v>
+        <v>97.461737</v>
       </c>
     </row>
     <row r="457">
@@ -4926,7 +4926,7 @@
         </is>
       </c>
       <c r="B457">
-        <v>97.86634713805618</v>
+        <v>97.866347</v>
       </c>
     </row>
     <row r="458">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B458">
-        <v>98.29603320169646</v>
+        <v>98.29603299999999</v>
       </c>
     </row>
     <row r="459">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="B459">
-        <v>99.19720208040302</v>
+        <v>99.197202</v>
       </c>
     </row>
     <row r="460">
@@ -4956,7 +4956,7 @@
         </is>
       </c>
       <c r="B460">
-        <v>100.1049460712245</v>
+        <v>100.104946</v>
       </c>
     </row>
     <row r="461">
@@ -4966,7 +4966,7 @@
         </is>
       </c>
       <c r="B461">
-        <v>100.984389059397</v>
+        <v>100.984389</v>
       </c>
     </row>
     <row r="462">
@@ -4976,7 +4976,7 @@
         </is>
       </c>
       <c r="B462">
-        <v>101.9105900662245</v>
+        <v>101.91059</v>
       </c>
     </row>
     <row r="463">
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="B463">
-        <v>101.9124728444587</v>
+        <v>101.912473</v>
       </c>
     </row>
     <row r="464">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="B464">
-        <v>101.011919983811</v>
+        <v>101.01192</v>
       </c>
     </row>
     <row r="465">
@@ -5006,7 +5006,7 @@
         </is>
       </c>
       <c r="B465">
-        <v>101.1105278030064</v>
+        <v>101.110528</v>
       </c>
     </row>
     <row r="466">
@@ -5016,7 +5016,7 @@
         </is>
       </c>
       <c r="B466">
-        <v>100.0267393701876</v>
+        <v>100.026739</v>
       </c>
     </row>
     <row r="467">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="B467">
-        <v>101.1595741128679</v>
+        <v>101.159574</v>
       </c>
     </row>
     <row r="468">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="B468">
-        <v>100.8930468439881</v>
+        <v>100.893047</v>
       </c>
     </row>
     <row r="469">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="B469">
-        <v>100.6173611209352</v>
+        <v>100.617361</v>
       </c>
     </row>
     <row r="470">
@@ -5056,7 +5056,7 @@
         </is>
       </c>
       <c r="B470">
-        <v>100.9986582656457</v>
+        <v>100.998658</v>
       </c>
     </row>
     <row r="471">
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="B471">
-        <v>101.0054697300083</v>
+        <v>101.00547</v>
       </c>
     </row>
     <row r="472">
@@ -5076,7 +5076,7 @@
         </is>
       </c>
       <c r="B472">
-        <v>101.0287426280009</v>
+        <v>101.028743</v>
       </c>
     </row>
     <row r="473">
@@ -5086,7 +5086,7 @@
         </is>
       </c>
       <c r="B473">
-        <v>101.1278625884657</v>
+        <v>101.127863</v>
       </c>
     </row>
     <row r="474">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B474">
-        <v>101.6010037116012</v>
+        <v>101.601004</v>
       </c>
     </row>
     <row r="475">
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="B475">
-        <v>102.4720763224261</v>
+        <v>102.472076</v>
       </c>
     </row>
     <row r="476">
@@ -5116,7 +5116,7 @@
         </is>
       </c>
       <c r="B476">
-        <v>101.7223060875639</v>
+        <v>101.722306</v>
       </c>
     </row>
     <row r="477">
@@ -5126,7 +5126,7 @@
         </is>
       </c>
       <c r="B477">
-        <v>103.0567846468393</v>
+        <v>103.056785</v>
       </c>
     </row>
     <row r="478">
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="B478">
-        <v>104.8915042432337</v>
+        <v>104.891504</v>
       </c>
     </row>
     <row r="479">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="B479">
-        <v>105.9936148149518</v>
+        <v>105.993615</v>
       </c>
     </row>
     <row r="480">
@@ -5156,7 +5156,7 @@
         </is>
       </c>
       <c r="B480">
-        <v>108.2073965715944</v>
+        <v>108.207397</v>
       </c>
     </row>
     <row r="481">
@@ -5166,7 +5166,7 @@
         </is>
       </c>
       <c r="B481">
-        <v>108.0679148006212</v>
+        <v>108.067915</v>
       </c>
     </row>
     <row r="482">
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="B482">
-        <v>107.3914039063532</v>
+        <v>107.391404</v>
       </c>
     </row>
     <row r="483">
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="B483">
-        <v>107.6135110949529</v>
+        <v>107.613511</v>
       </c>
     </row>
     <row r="484">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="B484">
-        <v>108.0864416538988</v>
+        <v>108.086442</v>
       </c>
     </row>
     <row r="485">
@@ -5206,7 +5206,7 @@
         </is>
       </c>
       <c r="B485">
-        <v>108.4490525920655</v>
+        <v>108.449053</v>
       </c>
     </row>
     <row r="486">
@@ -5216,7 +5216,7 @@
         </is>
       </c>
       <c r="B486">
-        <v>109.2624702806179</v>
+        <v>109.26247</v>
       </c>
     </row>
     <row r="487">
@@ -5226,7 +5226,7 @@
         </is>
       </c>
       <c r="B487">
-        <v>109.7327102945914</v>
+        <v>109.73271</v>
       </c>
     </row>
     <row r="488">
@@ -5236,7 +5236,7 @@
         </is>
       </c>
       <c r="B488">
-        <v>108.7920817414532</v>
+        <v>108.792082</v>
       </c>
     </row>
     <row r="489">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="B489">
-        <v>109.4330414242158</v>
+        <v>109.433041</v>
       </c>
     </row>
     <row r="490">
@@ -5256,7 +5256,7 @@
         </is>
       </c>
       <c r="B490">
-        <v>109.1632729034945</v>
+        <v>109.163273</v>
       </c>
     </row>
     <row r="491">
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="B491">
-        <v>108.8494027540912</v>
+        <v>108.849403</v>
       </c>
     </row>
     <row r="492">
@@ -5276,7 +5276,7 @@
         </is>
       </c>
       <c r="B492">
-        <v>110.7646217584291</v>
+        <v>110.764622</v>
       </c>
     </row>
     <row r="493">
@@ -5286,7 +5286,7 @@
         </is>
       </c>
       <c r="B493">
-        <v>111.2846190856306</v>
+        <v>111.284619</v>
       </c>
     </row>
     <row r="494">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="B494">
-        <v>109.8310312785377</v>
+        <v>109.831031</v>
       </c>
     </row>
     <row r="495">
@@ -5306,7 +5306,7 @@
         </is>
       </c>
       <c r="B495">
-        <v>108.7837942951383</v>
+        <v>108.783794</v>
       </c>
     </row>
     <row r="496">
@@ -5316,7 +5316,7 @@
         </is>
       </c>
       <c r="B496">
-        <v>110.0468521673189</v>
+        <v>110.046852</v>
       </c>
     </row>
     <row r="497">
@@ -5326,7 +5326,7 @@
         </is>
       </c>
       <c r="B497">
-        <v>109.4696280202434</v>
+        <v>109.469628</v>
       </c>
     </row>
     <row r="498">
@@ -5336,7 +5336,7 @@
         </is>
       </c>
       <c r="B498">
-        <v>109.2434848886441</v>
+        <v>109.243485</v>
       </c>
     </row>
     <row r="499">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="B499">
-        <v>109.3822438381551</v>
+        <v>109.382244</v>
       </c>
     </row>
     <row r="500">
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="B500">
-        <v>108.3647198923187</v>
+        <v>108.36472</v>
       </c>
     </row>
     <row r="501">
@@ -5366,7 +5366,7 @@
         </is>
       </c>
       <c r="B501">
-        <v>108.4214437461089</v>
+        <v>108.421444</v>
       </c>
     </row>
     <row r="502">
@@ -5376,7 +5376,7 @@
         </is>
       </c>
       <c r="B502">
-        <v>108.3495656934875</v>
+        <v>108.349566</v>
       </c>
     </row>
     <row r="503">
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="B503">
-        <v>107.6147101813161</v>
+        <v>107.61471</v>
       </c>
     </row>
     <row r="504">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="B504">
-        <v>107.3263584677353</v>
+        <v>107.326358</v>
       </c>
     </row>
     <row r="505">
@@ -5406,7 +5406,7 @@
         </is>
       </c>
       <c r="B505">
-        <v>107.4819653934843</v>
+        <v>107.481965</v>
       </c>
     </row>
     <row r="506">
@@ -5416,7 +5416,7 @@
         </is>
       </c>
       <c r="B506">
-        <v>107.7887180042713</v>
+        <v>107.788718</v>
       </c>
     </row>
     <row r="507">
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="B507">
-        <v>107.5317472656258</v>
+        <v>107.531747</v>
       </c>
     </row>
     <row r="508">
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="B508">
-        <v>107.4844616471267</v>
+        <v>107.484462</v>
       </c>
     </row>
     <row r="509">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="B509">
-        <v>106.9594474539969</v>
+        <v>106.959447</v>
       </c>
     </row>
     <row r="510">
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="B510">
-        <v>107.5262105438911</v>
+        <v>107.526211</v>
       </c>
     </row>
     <row r="511">
@@ -5466,7 +5466,7 @@
         </is>
       </c>
       <c r="B511">
-        <v>107.2663762959943</v>
+        <v>107.266376</v>
       </c>
     </row>
     <row r="512">
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="B512">
-        <v>105.0499064376635</v>
+        <v>105.049906</v>
       </c>
     </row>
     <row r="513">
@@ -5486,7 +5486,7 @@
         </is>
       </c>
       <c r="B513">
-        <v>105.3324240559075</v>
+        <v>105.332424</v>
       </c>
     </row>
     <row r="514">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="B514">
-        <v>105.7132326483095</v>
+        <v>105.713233</v>
       </c>
     </row>
     <row r="515">
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="B515">
-        <v>105.4034280614136</v>
+        <v>105.403428</v>
       </c>
     </row>
     <row r="516">
@@ -5516,7 +5516,7 @@
         </is>
       </c>
       <c r="B516">
-        <v>103.1208931334459</v>
+        <v>103.120893</v>
       </c>
     </row>
     <row r="517">
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="B517">
-        <v>102.8767889299217</v>
+        <v>102.876789</v>
       </c>
     </row>
     <row r="518">
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="B518">
-        <v>104.3331447100846</v>
+        <v>104.333145</v>
       </c>
     </row>
     <row r="519">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="B519">
-        <v>102.6880590267324</v>
+        <v>102.688059</v>
       </c>
     </row>
     <row r="520">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="B520">
-        <v>102.5771894611243</v>
+        <v>102.577189</v>
       </c>
     </row>
     <row r="521">
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="B521">
-        <v>102.5093583782031</v>
+        <v>102.509358</v>
       </c>
     </row>
     <row r="522">
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="B522">
-        <v>102.0495046583774</v>
+        <v>102.049505</v>
       </c>
     </row>
     <row r="523">
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="B523">
-        <v>101.6927468890047</v>
+        <v>101.692747</v>
       </c>
     </row>
     <row r="524">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="B524">
-        <v>101.7212905817224</v>
+        <v>101.721291</v>
       </c>
     </row>
     <row r="525">
@@ -5606,7 +5606,7 @@
         </is>
       </c>
       <c r="B525">
-        <v>99.94752902006034</v>
+        <v>99.947529</v>
       </c>
     </row>
     <row r="526">
@@ -5616,7 +5616,7 @@
         </is>
       </c>
       <c r="B526">
-        <v>99.80515163566234</v>
+        <v>99.80515200000001</v>
       </c>
     </row>
     <row r="527">
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="B527">
-        <v>98.90072311664775</v>
+        <v>98.900723</v>
       </c>
     </row>
     <row r="528">
@@ -5636,7 +5636,7 @@
         </is>
       </c>
       <c r="B528">
-        <v>99.27303534339904</v>
+        <v>99.27303499999999</v>
       </c>
     </row>
     <row r="529">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="B529">
-        <v>100.3116137520439</v>
+        <v>100.311614</v>
       </c>
     </row>
     <row r="530">
@@ -5656,7 +5656,7 @@
         </is>
       </c>
       <c r="B530">
-        <v>100.0212985906253</v>
+        <v>100.021299</v>
       </c>
     </row>
     <row r="531">
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="B531">
-        <v>100.7275216167182</v>
+        <v>100.727522</v>
       </c>
     </row>
     <row r="532">
@@ -5676,7 +5676,7 @@
         </is>
       </c>
       <c r="B532">
-        <v>100.9584328321603</v>
+        <v>100.958433</v>
       </c>
     </row>
     <row r="533">
@@ -5686,7 +5686,7 @@
         </is>
       </c>
       <c r="B533">
-        <v>99.46238635492969</v>
+        <v>99.462386</v>
       </c>
     </row>
     <row r="534">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="B534">
-        <v>99.79556691188556</v>
+        <v>99.79556700000001</v>
       </c>
     </row>
     <row r="535">
@@ -5706,7 +5706,7 @@
         </is>
       </c>
       <c r="B535">
-        <v>98.54884771743414</v>
+        <v>98.54884800000001</v>
       </c>
     </row>
     <row r="536">
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="B536">
-        <v>97.77660460547503</v>
+        <v>97.776605</v>
       </c>
     </row>
     <row r="537">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B537">
-        <v>97.52303471441502</v>
+        <v>97.52303499999999</v>
       </c>
     </row>
     <row r="538">
@@ -5736,7 +5736,7 @@
         </is>
       </c>
       <c r="B538">
-        <v>97.42023496424703</v>
+        <v>97.42023500000001</v>
       </c>
     </row>
     <row r="539">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="B539">
-        <v>96.90625175297632</v>
+        <v>96.90625199999999</v>
       </c>
     </row>
     <row r="540">
@@ -5756,7 +5756,7 @@
         </is>
       </c>
       <c r="B540">
-        <v>96.74307703080616</v>
+        <v>96.743077</v>
       </c>
     </row>
     <row r="541">
@@ -5766,7 +5766,7 @@
         </is>
       </c>
       <c r="B541">
-        <v>96.50379688701902</v>
+        <v>96.50379700000001</v>
       </c>
     </row>
     <row r="542">
@@ -5776,7 +5776,7 @@
         </is>
       </c>
       <c r="B542">
-        <v>96.70091226549556</v>
+        <v>96.700912</v>
       </c>
     </row>
     <row r="543">
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="B543">
-        <v>97.09071052181901</v>
+        <v>97.090711</v>
       </c>
     </row>
     <row r="544">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="B544">
-        <v>98.03331133055661</v>
+        <v>98.033311</v>
       </c>
     </row>
     <row r="545">
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="B545">
-        <v>97.02087843769212</v>
+        <v>97.020878</v>
       </c>
     </row>
     <row r="546">
@@ -5816,7 +5816,7 @@
         </is>
       </c>
       <c r="B546">
-        <v>98.95318496339631</v>
+        <v>98.953185</v>
       </c>
     </row>
     <row r="547">
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="B547">
-        <v>98.10522503407029</v>
+        <v>98.105225</v>
       </c>
     </row>
     <row r="548">
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="B548">
-        <v>99.78242397915665</v>
+        <v>99.78242400000001</v>
       </c>
     </row>
     <row r="549">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="B549">
-        <v>100.2075944405196</v>
+        <v>100.207594</v>
       </c>
     </row>
     <row r="550">
@@ -5856,7 +5856,7 @@
         </is>
       </c>
       <c r="B550">
-        <v>101.5133081649968</v>
+        <v>101.513308</v>
       </c>
     </row>
     <row r="551">
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="B551">
-        <v>100.0078230857619</v>
+        <v>100.007823</v>
       </c>
     </row>
     <row r="552">
@@ -5876,7 +5876,7 @@
         </is>
       </c>
       <c r="B552">
-        <v>99.2155283663508</v>
+        <v>99.21552800000001</v>
       </c>
     </row>
     <row r="553">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B553">
-        <v>99.67926517331091</v>
+        <v>99.679265</v>
       </c>
     </row>
     <row r="554">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="B554">
-        <v>101.4858465155631</v>
+        <v>101.485847</v>
       </c>
     </row>
     <row r="555">
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="B555">
-        <v>101.1604461484786</v>
+        <v>101.160446</v>
       </c>
     </row>
     <row r="556">
@@ -5916,7 +5916,7 @@
         </is>
       </c>
       <c r="B556">
-        <v>101.4218829301208</v>
+        <v>101.421883</v>
       </c>
     </row>
     <row r="557">
@@ -5926,7 +5926,7 @@
         </is>
       </c>
       <c r="B557">
-        <v>102.1814862756782</v>
+        <v>102.181486</v>
       </c>
     </row>
     <row r="558">
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="B558">
-        <v>102.8652477422568</v>
+        <v>102.865248</v>
       </c>
     </row>
     <row r="559">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="B559">
-        <v>103.3343776723647</v>
+        <v>103.334378</v>
       </c>
     </row>
     <row r="560">
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="B560">
-        <v>103.3452322084436</v>
+        <v>103.345232</v>
       </c>
     </row>
     <row r="561">
@@ -5966,7 +5966,7 @@
         </is>
       </c>
       <c r="B561">
-        <v>102.3800352359582</v>
+        <v>102.380035</v>
       </c>
     </row>
     <row r="562">
@@ -5976,7 +5976,7 @@
         </is>
       </c>
       <c r="B562">
-        <v>101.8586125218539</v>
+        <v>101.858613</v>
       </c>
     </row>
     <row r="563">
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="B563">
-        <v>101.42950204046</v>
+        <v>101.429502</v>
       </c>
     </row>
     <row r="564">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="B564">
-        <v>100.6294630312441</v>
+        <v>100.629463</v>
       </c>
     </row>
     <row r="565">
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="B565">
-        <v>101.1752155762661</v>
+        <v>101.175216</v>
       </c>
     </row>
     <row r="566">
@@ -6016,7 +6016,7 @@
         </is>
       </c>
       <c r="B566">
-        <v>100.6557935307515</v>
+        <v>100.655794</v>
       </c>
     </row>
     <row r="567">
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="B567">
-        <v>100.2622270797293</v>
+        <v>100.262227</v>
       </c>
     </row>
     <row r="568">
@@ -6036,7 +6036,7 @@
         </is>
       </c>
       <c r="B568">
-        <v>99.5716741666635</v>
+        <v>99.571674</v>
       </c>
     </row>
     <row r="569">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="B569">
-        <v>99.54710680667695</v>
+        <v>99.547107</v>
       </c>
     </row>
     <row r="570">
@@ -6056,7 +6056,7 @@
         </is>
       </c>
       <c r="B570">
-        <v>100.1814331028271</v>
+        <v>100.181433</v>
       </c>
     </row>
     <row r="571">
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="B571">
-        <v>100.7349793090086</v>
+        <v>100.734979</v>
       </c>
     </row>
     <row r="572">
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="B572">
-        <v>100.3729461139206</v>
+        <v>100.372946</v>
       </c>
     </row>
     <row r="573">
@@ -6086,7 +6086,7 @@
         </is>
       </c>
       <c r="B573">
-        <v>102.5596492745542</v>
+        <v>102.559649</v>
       </c>
     </row>
     <row r="574">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="B574">
-        <v>103.0227813174339</v>
+        <v>103.022781</v>
       </c>
     </row>
     <row r="575">
@@ -6106,7 +6106,7 @@
         </is>
       </c>
       <c r="B575">
-        <v>103.2195331083623</v>
+        <v>103.219533</v>
       </c>
     </row>
     <row r="576">
@@ -6116,7 +6116,7 @@
         </is>
       </c>
       <c r="B576">
-        <v>103.7495587625206</v>
+        <v>103.749559</v>
       </c>
     </row>
     <row r="577">
@@ -6126,7 +6126,7 @@
         </is>
       </c>
       <c r="B577">
-        <v>103.4992277708459</v>
+        <v>103.499228</v>
       </c>
     </row>
     <row r="578">
@@ -6136,7 +6136,7 @@
         </is>
       </c>
       <c r="B578">
-        <v>104.0957391874809</v>
+        <v>104.095739</v>
       </c>
     </row>
     <row r="579">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="B579">
-        <v>105.1363010654565</v>
+        <v>105.136301</v>
       </c>
     </row>
     <row r="580">
@@ -6156,7 +6156,7 @@
         </is>
       </c>
       <c r="B580">
-        <v>105.9747183008036</v>
+        <v>105.974718</v>
       </c>
     </row>
     <row r="581">
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="B581">
-        <v>106.5378630693724</v>
+        <v>106.537863</v>
       </c>
     </row>
     <row r="582">
@@ -6176,7 +6176,7 @@
         </is>
       </c>
       <c r="B582">
-        <v>104.2216397200699</v>
+        <v>104.22164</v>
       </c>
     </row>
     <row r="583">
@@ -6186,7 +6186,7 @@
         </is>
       </c>
       <c r="B583">
-        <v>104.9376377949099</v>
+        <v>104.937638</v>
       </c>
     </row>
     <row r="584">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="B584">
-        <v>106.0354163937049</v>
+        <v>106.035416</v>
       </c>
     </row>
     <row r="585">
@@ -6206,7 +6206,7 @@
         </is>
       </c>
       <c r="B585">
-        <v>105.6793517628238</v>
+        <v>105.679352</v>
       </c>
     </row>
     <row r="586">
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="B586">
-        <v>104.6911031379507</v>
+        <v>104.691103</v>
       </c>
     </row>
     <row r="587">
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="B587">
-        <v>107.0952052178105</v>
+        <v>107.095205</v>
       </c>
     </row>
     <row r="588">
@@ -6236,7 +6236,7 @@
         </is>
       </c>
       <c r="B588">
-        <v>107.0639666101273</v>
+        <v>107.063967</v>
       </c>
     </row>
     <row r="589">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="B589">
-        <v>106.2596658933652</v>
+        <v>106.259666</v>
       </c>
     </row>
     <row r="590">
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="B590">
-        <v>105.5505912963098</v>
+        <v>105.550591</v>
       </c>
     </row>
     <row r="591">
@@ -6266,7 +6266,7 @@
         </is>
       </c>
       <c r="B591">
-        <v>104.9567936785204</v>
+        <v>104.956794</v>
       </c>
     </row>
     <row r="592">
@@ -6276,7 +6276,7 @@
         </is>
       </c>
       <c r="B592">
-        <v>103.4174735390321</v>
+        <v>103.417474</v>
       </c>
     </row>
     <row r="593">
@@ -6286,7 +6286,7 @@
         </is>
       </c>
       <c r="B593">
-        <v>103.5843079319801</v>
+        <v>103.584308</v>
       </c>
     </row>
     <row r="594">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="B594">
-        <v>104.263946409878</v>
+        <v>104.263946</v>
       </c>
     </row>
     <row r="595">
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="B595">
-        <v>104.8916741702551</v>
+        <v>104.891674</v>
       </c>
     </row>
     <row r="596">
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="B596">
-        <v>105.6544443806451</v>
+        <v>105.654444</v>
       </c>
     </row>
     <row r="597">
@@ -6326,7 +6326,7 @@
         </is>
       </c>
       <c r="B597">
-        <v>105.5897650418898</v>
+        <v>105.589765</v>
       </c>
     </row>
     <row r="598">
@@ -6336,7 +6336,7 @@
         </is>
       </c>
       <c r="B598">
-        <v>105.3743917429117</v>
+        <v>105.374392</v>
       </c>
     </row>
     <row r="599">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="B599">
-        <v>104.026283072</v>
+        <v>104.026283</v>
       </c>
     </row>
     <row r="600">
@@ -6356,7 +6356,7 @@
         </is>
       </c>
       <c r="B600">
-        <v>102.264233154217</v>
+        <v>102.264233</v>
       </c>
     </row>
     <row r="601">
@@ -6366,7 +6366,7 @@
         </is>
       </c>
       <c r="B601">
-        <v>103.6789597320996</v>
+        <v>103.67896</v>
       </c>
     </row>
     <row r="602">
@@ -6376,7 +6376,7 @@
         </is>
       </c>
       <c r="B602">
-        <v>103.1220323261534</v>
+        <v>103.122032</v>
       </c>
     </row>
     <row r="603">
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="B603">
-        <v>102.7414068799957</v>
+        <v>102.741407</v>
       </c>
     </row>
     <row r="604">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="B604">
-        <v>102.2857315647375</v>
+        <v>102.285732</v>
       </c>
     </row>
     <row r="605">
@@ -6406,7 +6406,7 @@
         </is>
       </c>
       <c r="B605">
-        <v>102.3336619938997</v>
+        <v>102.333662</v>
       </c>
     </row>
     <row r="606">
@@ -6416,7 +6416,7 @@
         </is>
       </c>
       <c r="B606">
-        <v>101.760839815139</v>
+        <v>101.76084</v>
       </c>
     </row>
     <row r="607">
@@ -6426,7 +6426,7 @@
         </is>
       </c>
       <c r="B607">
-        <v>101.7580166543457</v>
+        <v>101.758017</v>
       </c>
     </row>
     <row r="608">
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="B608">
-        <v>102.7695189784198</v>
+        <v>102.769519</v>
       </c>
     </row>
     <row r="609">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="B609">
-        <v>102.6187019001273</v>
+        <v>102.618702</v>
       </c>
     </row>
     <row r="610">
@@ -6456,7 +6456,7 @@
         </is>
       </c>
       <c r="B610">
-        <v>102.1131951794344</v>
+        <v>102.113195</v>
       </c>
     </row>
     <row r="611">
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="B611">
-        <v>100.7458775011051</v>
+        <v>100.745878</v>
       </c>
     </row>
     <row r="612">
@@ -6476,7 +6476,7 @@
         </is>
       </c>
       <c r="B612">
-        <v>100.5696038418455</v>
+        <v>100.569604</v>
       </c>
     </row>
     <row r="613">
@@ -6486,7 +6486,7 @@
         </is>
       </c>
       <c r="B613">
-        <v>101.2305972951501</v>
+        <v>101.230597</v>
       </c>
     </row>
     <row r="614">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="B614">
-        <v>100.2902368456838</v>
+        <v>100.290237</v>
       </c>
     </row>
     <row r="615">
@@ -6506,7 +6506,7 @@
         </is>
       </c>
       <c r="B615">
-        <v>101.9052135450818</v>
+        <v>101.905214</v>
       </c>
     </row>
     <row r="616">
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B616">
-        <v>102.5723971797436</v>
+        <v>102.572397</v>
       </c>
     </row>
     <row r="617">
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="B617">
-        <v>103.8487423052468</v>
+        <v>103.848742</v>
       </c>
     </row>
     <row r="618">
@@ -6536,7 +6536,7 @@
         </is>
       </c>
       <c r="B618">
-        <v>102.5826118088647</v>
+        <v>102.582612</v>
       </c>
     </row>
     <row r="619">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="B619">
-        <v>102.3028943255967</v>
+        <v>102.302894</v>
       </c>
     </row>
     <row r="620">
@@ -6556,7 +6556,7 @@
         </is>
       </c>
       <c r="B620">
-        <v>103.062584818874</v>
+        <v>103.062585</v>
       </c>
     </row>
     <row r="621">
@@ -6566,7 +6566,7 @@
         </is>
       </c>
       <c r="B621">
-        <v>102.1582662012468</v>
+        <v>102.158266</v>
       </c>
     </row>
     <row r="622">
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="B622">
-        <v>100.8586024097764</v>
+        <v>100.858602</v>
       </c>
     </row>
     <row r="623">
@@ -6586,7 +6586,7 @@
         </is>
       </c>
       <c r="B623">
-        <v>99.74182005332169</v>
+        <v>99.74182</v>
       </c>
     </row>
     <row r="624">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="B624">
-        <v>99.40832888196537</v>
+        <v>99.40832899999999</v>
       </c>
     </row>
     <row r="625">
@@ -6606,7 +6606,7 @@
         </is>
       </c>
       <c r="B625">
-        <v>98.01507422439626</v>
+        <v>98.015074</v>
       </c>
     </row>
     <row r="626">
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="B626">
-        <v>98.40566791055208</v>
+        <v>98.40566800000001</v>
       </c>
     </row>
     <row r="627">
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="B627">
-        <v>97.71367615603266</v>
+        <v>97.71367600000001</v>
       </c>
     </row>
     <row r="628">
@@ -6636,7 +6636,7 @@
         </is>
       </c>
       <c r="B628">
-        <v>98.00600125855829</v>
+        <v>98.006001</v>
       </c>
     </row>
     <row r="629">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="B629">
-        <v>97.23333934129074</v>
+        <v>97.233339</v>
       </c>
     </row>
     <row r="630">
@@ -6656,7 +6656,7 @@
         </is>
       </c>
       <c r="B630">
-        <v>96.82607549681912</v>
+        <v>96.826075</v>
       </c>
     </row>
     <row r="631">
@@ -6666,7 +6666,7 @@
         </is>
       </c>
       <c r="B631">
-        <v>96.29247485087419</v>
+        <v>96.292475</v>
       </c>
     </row>
     <row r="632">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B632">
-        <v>94.41436827747575</v>
+        <v>94.414368</v>
       </c>
     </row>
     <row r="633">
@@ -6686,7 +6686,7 @@
         </is>
       </c>
       <c r="B633">
-        <v>94.29703541611116</v>
+        <v>94.29703499999999</v>
       </c>
     </row>
     <row r="634">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="B634">
-        <v>94.10865088712114</v>
+        <v>94.10865099999999</v>
       </c>
     </row>
     <row r="635">
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="B635">
-        <v>94.47543381086543</v>
+        <v>94.47543400000001</v>
       </c>
     </row>
     <row r="636">
@@ -6716,7 +6716,7 @@
         </is>
       </c>
       <c r="B636">
-        <v>95.58023440762253</v>
+        <v>95.580234</v>
       </c>
     </row>
     <row r="637">
@@ -6726,7 +6726,7 @@
         </is>
       </c>
       <c r="B637">
-        <v>97.47748444377832</v>
+        <v>97.477484</v>
       </c>
     </row>
     <row r="638">
@@ -6736,7 +6736,7 @@
         </is>
       </c>
       <c r="B638">
-        <v>95.98943802808213</v>
+        <v>95.98943800000001</v>
       </c>
     </row>
     <row r="639">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="B639">
-        <v>95.65655045999372</v>
+        <v>95.65655</v>
       </c>
     </row>
     <row r="640">
@@ -6756,7 +6756,7 @@
         </is>
       </c>
       <c r="B640">
-        <v>95.54411062805835</v>
+        <v>95.544111</v>
       </c>
     </row>
     <row r="641">
@@ -6766,7 +6766,7 @@
         </is>
       </c>
       <c r="B641">
-        <v>96.56638108138745</v>
+        <v>96.56638100000001</v>
       </c>
     </row>
     <row r="642">
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="B642">
-        <v>95.97771055803015</v>
+        <v>95.977711</v>
       </c>
     </row>
     <row r="643">
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="B643">
-        <v>96.75024404474745</v>
+        <v>96.750244</v>
       </c>
     </row>
     <row r="644">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="B644">
-        <v>96.15551297168352</v>
+        <v>96.155513</v>
       </c>
     </row>
     <row r="645">
@@ -6806,7 +6806,7 @@
         </is>
       </c>
       <c r="B645">
-        <v>97.91481674307327</v>
+        <v>97.914817</v>
       </c>
     </row>
     <row r="646">
@@ -6816,7 +6816,7 @@
         </is>
       </c>
       <c r="B646">
-        <v>96.88964240367548</v>
+        <v>96.88964199999999</v>
       </c>
     </row>
     <row r="647">
@@ -6826,7 +6826,7 @@
         </is>
       </c>
       <c r="B647">
-        <v>97.80280837323758</v>
+        <v>97.802808</v>
       </c>
     </row>
     <row r="648">
@@ -6836,7 +6836,7 @@
         </is>
       </c>
       <c r="B648">
-        <v>99.35897653622089</v>
+        <v>99.358977</v>
       </c>
     </row>
     <row r="649">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="B649">
-        <v>99.92525019472185</v>
+        <v>99.92525000000001</v>
       </c>
     </row>
     <row r="650">
@@ -6856,7 +6856,7 @@
         </is>
       </c>
       <c r="B650">
-        <v>98.58422645838971</v>
+        <v>98.584226</v>
       </c>
     </row>
     <row r="651">
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="B651">
-        <v>97.85800014408304</v>
+        <v>97.858</v>
       </c>
     </row>
     <row r="652">
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="B652">
-        <v>97.90141257325104</v>
+        <v>97.90141300000001</v>
       </c>
     </row>
     <row r="653">
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="B653">
-        <v>98.94561321766861</v>
+        <v>98.94561299999999</v>
       </c>
     </row>
     <row r="654">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="B654">
-        <v>98.96970433469066</v>
+        <v>98.96970399999999</v>
       </c>
     </row>
     <row r="655">
@@ -6906,7 +6906,7 @@
         </is>
       </c>
       <c r="B655">
-        <v>98.43140338396037</v>
+        <v>98.431403</v>
       </c>
     </row>
     <row r="656">
@@ -6916,7 +6916,7 @@
         </is>
       </c>
       <c r="B656">
-        <v>98.47862164716436</v>
+        <v>98.478622</v>
       </c>
     </row>
     <row r="657">
@@ -6926,7 +6926,7 @@
         </is>
       </c>
       <c r="B657">
-        <v>97.61035145007416</v>
+        <v>97.61035099999999</v>
       </c>
     </row>
     <row r="658">
@@ -6936,7 +6936,7 @@
         </is>
       </c>
       <c r="B658">
-        <v>97.26132563991776</v>
+        <v>97.261326</v>
       </c>
     </row>
     <row r="659">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="B659">
-        <v>97.80985802247024</v>
+        <v>97.80985800000001</v>
       </c>
     </row>
     <row r="660">
@@ -6956,7 +6956,7 @@
         </is>
       </c>
       <c r="B660">
-        <v>97.4313714269136</v>
+        <v>97.431371</v>
       </c>
     </row>
     <row r="661">
@@ -6966,7 +6966,7 @@
         </is>
       </c>
       <c r="B661">
-        <v>97.59646644588196</v>
+        <v>97.59646600000001</v>
       </c>
     </row>
     <row r="662">
@@ -6976,7 +6976,7 @@
         </is>
       </c>
       <c r="B662">
-        <v>97.89783873081582</v>
+        <v>97.897839</v>
       </c>
     </row>
     <row r="663">
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="B663">
-        <v>99.95248205521551</v>
+        <v>99.952482</v>
       </c>
     </row>
     <row r="664">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="B664">
-        <v>98.94042047502195</v>
+        <v>98.94042</v>
       </c>
     </row>
     <row r="665">
@@ -7006,7 +7006,7 @@
         </is>
       </c>
       <c r="B665">
-        <v>97.62713224072583</v>
+        <v>97.627132</v>
       </c>
     </row>
     <row r="666">
@@ -7016,7 +7016,7 @@
         </is>
       </c>
       <c r="B666">
-        <v>96.30470250733185</v>
+        <v>96.304703</v>
       </c>
     </row>
     <row r="667">
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="B667">
-        <v>95.58183872008318</v>
+        <v>95.581839</v>
       </c>
     </row>
     <row r="668">
@@ -7036,7 +7036,7 @@
         </is>
       </c>
       <c r="B668">
-        <v>93.91068492875338</v>
+        <v>93.910685</v>
       </c>
     </row>
     <row r="669">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="B669">
-        <v>93.51174094167152</v>
+        <v>93.511741</v>
       </c>
     </row>
     <row r="670">
@@ -7056,7 +7056,7 @@
         </is>
       </c>
       <c r="B670">
-        <v>92.27976942896716</v>
+        <v>92.279769</v>
       </c>
     </row>
     <row r="671">
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="B671">
-        <v>92.70500843009528</v>
+        <v>92.70500800000001</v>
       </c>
     </row>
     <row r="672">
@@ -7076,7 +7076,7 @@
         </is>
       </c>
       <c r="B672">
-        <v>93.15151742259356</v>
+        <v>93.151517</v>
       </c>
     </row>
     <row r="673">
@@ -7086,7 +7086,7 @@
         </is>
       </c>
       <c r="B673">
-        <v>94.79740037822995</v>
+        <v>94.7974</v>
       </c>
     </row>
     <row r="674">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="B674">
-        <v>94.76419538203795</v>
+        <v>94.764195</v>
       </c>
     </row>
     <row r="675">
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="B675">
-        <v>95.67963889198815</v>
+        <v>95.67963899999999</v>
       </c>
     </row>
     <row r="676">
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="B676">
-        <v>95.7867912551834</v>
+        <v>95.78679099999999</v>
       </c>
     </row>
     <row r="677">
@@ -7126,7 +7126,7 @@
         </is>
       </c>
       <c r="B677">
-        <v>97.04674523714627</v>
+        <v>97.046745</v>
       </c>
     </row>
     <row r="678">
@@ -7136,7 +7136,7 @@
         </is>
       </c>
       <c r="B678">
-        <v>97.18575679264605</v>
+        <v>97.185757</v>
       </c>
     </row>
     <row r="679">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="B679">
-        <v>96.48435413578291</v>
+        <v>96.484354</v>
       </c>
     </row>
     <row r="680">
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="B680">
-        <v>96.02938661193167</v>
+        <v>96.029387</v>
       </c>
     </row>
     <row r="681">
@@ -7166,7 +7166,7 @@
         </is>
       </c>
       <c r="B681">
-        <v>96.80126035331553</v>
+        <v>96.80126</v>
       </c>
     </row>
     <row r="682">
@@ -7176,7 +7176,7 @@
         </is>
       </c>
       <c r="B682">
-        <v>97.4650952843824</v>
+        <v>97.46509500000001</v>
       </c>
     </row>
     <row r="683">
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="B683">
-        <v>98.14162933315441</v>
+        <v>98.14162899999999</v>
       </c>
     </row>
     <row r="684">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="B684">
-        <v>98.00638979141566</v>
+        <v>98.00639</v>
       </c>
     </row>
     <row r="685">
@@ -7206,7 +7206,7 @@
         </is>
       </c>
       <c r="B685">
-        <v>99.97072768186878</v>
+        <v>99.97072799999999</v>
       </c>
     </row>
     <row r="686">
@@ -7216,7 +7216,7 @@
         </is>
       </c>
       <c r="B686">
-        <v>100.7752443817692</v>
+        <v>100.775244</v>
       </c>
     </row>
     <row r="687">
@@ -7226,7 +7226,7 @@
         </is>
       </c>
       <c r="B687">
-        <v>100.9632513584462</v>
+        <v>100.963251</v>
       </c>
     </row>
     <row r="688">
@@ -7236,7 +7236,7 @@
         </is>
       </c>
       <c r="B688">
-        <v>100.5271913542079</v>
+        <v>100.527191</v>
       </c>
     </row>
     <row r="689">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="B689">
-        <v>100.3551976957856</v>
+        <v>100.355198</v>
       </c>
     </row>
     <row r="690">
@@ -7256,7 +7256,7 @@
         </is>
       </c>
       <c r="B690">
-        <v>101.0550560460159</v>
+        <v>101.055056</v>
       </c>
     </row>
     <row r="691">
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="B691">
-        <v>101.5737556397041</v>
+        <v>101.573756</v>
       </c>
     </row>
     <row r="692">
@@ -7276,7 +7276,7 @@
         </is>
       </c>
       <c r="B692">
-        <v>100.1222511922681</v>
+        <v>100.122251</v>
       </c>
     </row>
     <row r="693">
@@ -7286,7 +7286,7 @@
         </is>
       </c>
       <c r="B693">
-        <v>99.6795537687442</v>
+        <v>99.679554</v>
       </c>
     </row>
     <row r="694">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="B694">
-        <v>100.1444776706444</v>
+        <v>100.144478</v>
       </c>
     </row>
     <row r="695">
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B695">
-        <v>99.95759828765351</v>
+        <v>99.957598</v>
       </c>
     </row>
     <row r="696">
@@ -7316,7 +7316,7 @@
         </is>
       </c>
       <c r="B696">
-        <v>100.8257863071278</v>
+        <v>100.825786</v>
       </c>
     </row>
     <row r="697">
@@ -7326,7 +7326,7 @@
         </is>
       </c>
       <c r="B697">
-        <v>101.3960322205641</v>
+        <v>101.396032</v>
       </c>
     </row>
     <row r="698">
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="B698">
-        <v>101.0444712850798</v>
+        <v>101.044471</v>
       </c>
     </row>
     <row r="699">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="B699">
-        <v>100.6679291079411</v>
+        <v>100.667929</v>
       </c>
     </row>
     <row r="700">
@@ -7356,7 +7356,7 @@
         </is>
       </c>
       <c r="B700">
-        <v>100.4903724671753</v>
+        <v>100.490372</v>
       </c>
     </row>
     <row r="701">
@@ -7366,7 +7366,7 @@
         </is>
       </c>
       <c r="B701">
-        <v>101.1185342931496</v>
+        <v>101.118534</v>
       </c>
     </row>
     <row r="702">
@@ -7376,7 +7376,7 @@
         </is>
       </c>
       <c r="B702">
-        <v>99.77499890456041</v>
+        <v>99.77499899999999</v>
       </c>
     </row>
     <row r="703">
@@ -7386,7 +7386,7 @@
         </is>
       </c>
       <c r="B703">
-        <v>99.18685150438725</v>
+        <v>99.186852</v>
       </c>
     </row>
     <row r="704">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="B704">
-        <v>100.0012794566296</v>
+        <v>100.001279</v>
       </c>
     </row>
     <row r="705">
@@ -7406,7 +7406,7 @@
         </is>
       </c>
       <c r="B705">
-        <v>100.163551170504</v>
+        <v>100.163551</v>
       </c>
     </row>
     <row r="706">
@@ -7416,7 +7416,7 @@
         </is>
       </c>
       <c r="B706">
-        <v>99.61180399706215</v>
+        <v>99.61180400000001</v>
       </c>
     </row>
     <row r="707">
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="B707">
-        <v>99.34178359094486</v>
+        <v>99.341784</v>
       </c>
     </row>
     <row r="708">
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="B708">
-        <v>99.01803264877459</v>
+        <v>99.018033</v>
       </c>
     </row>
     <row r="709">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="B709">
-        <v>98.50145215188599</v>
+        <v>98.501452</v>
       </c>
     </row>
     <row r="710">
@@ -7456,7 +7456,7 @@
         </is>
       </c>
       <c r="B710">
-        <v>99.27031597897131</v>
+        <v>99.27031599999999</v>
       </c>
     </row>
     <row r="711">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B711">
-        <v>98.51974375010536</v>
+        <v>98.519744</v>
       </c>
     </row>
     <row r="712">
@@ -7476,7 +7476,7 @@
         </is>
       </c>
       <c r="B712">
-        <v>99.49181658305768</v>
+        <v>99.491817</v>
       </c>
     </row>
     <row r="713">
@@ -7486,7 +7486,7 @@
         </is>
       </c>
       <c r="B713">
-        <v>99.27882178862454</v>
+        <v>99.27882200000001</v>
       </c>
     </row>
     <row r="714">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="B714">
-        <v>100.6975220884152</v>
+        <v>100.697522</v>
       </c>
     </row>
     <row r="715">
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="B715">
-        <v>99.56608240070004</v>
+        <v>99.56608199999999</v>
       </c>
     </row>
     <row r="716">
@@ -7516,7 +7516,7 @@
         </is>
       </c>
       <c r="B716">
-        <v>101.1186032500521</v>
+        <v>101.118603</v>
       </c>
     </row>
     <row r="717">
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="B717">
-        <v>102.432135754631</v>
+        <v>102.432136</v>
       </c>
     </row>
     <row r="718">
@@ -7536,7 +7536,7 @@
         </is>
       </c>
       <c r="B718">
-        <v>102.2697903585109</v>
+        <v>102.26979</v>
       </c>
     </row>
     <row r="719">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="B719">
-        <v>102.7607421383749</v>
+        <v>102.760742</v>
       </c>
     </row>
     <row r="720">
@@ -7556,7 +7556,7 @@
         </is>
       </c>
       <c r="B720">
-        <v>103.0521204537688</v>
+        <v>103.05212</v>
       </c>
     </row>
     <row r="721">
@@ -7566,7 +7566,7 @@
         </is>
       </c>
       <c r="B721">
-        <v>102.7271319220491</v>
+        <v>102.727132</v>
       </c>
     </row>
     <row r="722">
@@ -7576,7 +7576,7 @@
         </is>
       </c>
       <c r="B722">
-        <v>104.5417903632912</v>
+        <v>104.54179</v>
       </c>
     </row>
     <row r="723">
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="B723">
-        <v>102.6338089624214</v>
+        <v>102.633809</v>
       </c>
     </row>
     <row r="724">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="B724">
-        <v>104.4209155194143</v>
+        <v>104.420916</v>
       </c>
     </row>
     <row r="725">
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="B725">
-        <v>104.0510846648293</v>
+        <v>104.051085</v>
       </c>
     </row>
     <row r="726">
@@ -7616,7 +7616,7 @@
         </is>
       </c>
       <c r="B726">
-        <v>104.827934292606</v>
+        <v>104.827934</v>
       </c>
     </row>
     <row r="727">
@@ -7626,7 +7626,7 @@
         </is>
       </c>
       <c r="B727">
-        <v>104.2718858521275</v>
+        <v>104.271886</v>
       </c>
     </row>
     <row r="728">
@@ -7636,7 +7636,7 @@
         </is>
       </c>
       <c r="B728">
-        <v>103.9129295148501</v>
+        <v>103.91293</v>
       </c>
     </row>
     <row r="729">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="B729">
-        <v>105.5057957515362</v>
+        <v>105.505796</v>
       </c>
     </row>
     <row r="730">
@@ -7656,7 +7656,7 @@
         </is>
       </c>
       <c r="B730">
-        <v>105.2907825843392</v>
+        <v>105.290783</v>
       </c>
     </row>
     <row r="731">
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="B731">
-        <v>105.9131180853853</v>
+        <v>105.913118</v>
       </c>
     </row>
   </sheetData>
